--- a/Additional tools/HexCommandGenerator.xlsx
+++ b/Additional tools/HexCommandGenerator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPlsicik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPlsicik\Documents\GitHub\RVC\Additional tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90961235-746A-4559-81FF-493ECE2C4A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B353EE8F-F522-4CA4-B839-008B430E133D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C0407B85-B327-42D9-9F5E-F62690023138}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C0407B85-B327-42D9-9F5E-F62690023138}"/>
   </bookViews>
   <sheets>
     <sheet name="CommandGenerator" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="160">
   <si>
     <t>x0f</t>
   </si>
@@ -466,9 +466,6 @@
     <t>Output</t>
   </si>
   <si>
-    <t>control</t>
-  </si>
-  <si>
     <t>0x04?</t>
   </si>
   <si>
@@ -493,12 +490,6 @@
     <t>command</t>
   </si>
   <si>
-    <t>parameters CMD_TRANSMIT_CRITICAL_LIMIT</t>
-  </si>
-  <si>
-    <t>parameters CMD_TRANSMIT_READY_LIMIT</t>
-  </si>
-  <si>
     <t>Normal mode</t>
   </si>
   <si>
@@ -593,13 +584,43 @@
   </si>
   <si>
     <t>Whole command</t>
+  </si>
+  <si>
+    <t>0;1;2;3</t>
+  </si>
+  <si>
+    <t>Output contro</t>
+  </si>
+  <si>
+    <t>Bus Timing 0</t>
+  </si>
+  <si>
+    <t>x20</t>
+  </si>
+  <si>
+    <t>hodnota</t>
+  </si>
+  <si>
+    <t>max hodnota</t>
+  </si>
+  <si>
+    <t>&lt; Critical Limit</t>
+  </si>
+  <si>
+    <t>CMD_TRANSMIT_CRITICAL_LIMIT</t>
+  </si>
+  <si>
+    <t>CMD_Baud_Rate</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +694,14 @@
       <family val="1"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -709,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,16 +765,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,7 +1107,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1131,7 +1164,7 @@
         <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>19</v>
@@ -1185,7 +1218,7 @@
         <v>x01</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D2:D34" si="0">"x0"&amp;DEC2HEX(COUNT(E3:S3))</f>
+        <f t="shared" ref="D3:D34" si="0">"x0"&amp;DEC2HEX(COUNT(E3:S3))</f>
         <v>x00</v>
       </c>
       <c r="T3">
@@ -1699,7 +1732,7 @@
       <c r="U22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="V22" s="12" t="s">
         <v>87</v>
       </c>
       <c r="W22" s="4" t="s">
@@ -2017,7 +2050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A189CF-2E2C-4375-A033-FB167A3AFC80}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2030,30 +2063,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="B1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
@@ -2078,8 +2111,8 @@
       <c r="W2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>129</v>
+      <c r="A3" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="B3" t="str">
         <f>"x0fx12x"&amp;C3&amp;"x05"</f>
@@ -2091,8 +2124,8 @@
       <c r="D3" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>130</v>
+      <c r="I3" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J5" si="0">"x0fx12x"&amp;K3&amp;"x05"</f>
@@ -2106,31 +2139,31 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" t="str">
         <f t="shared" ref="B4:B11" si="1">"x0fx12x"&amp;C4&amp;"x05"</f>
         <v>x0fx12x0x1Fx05</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="15"/>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>x0fx12x0x1Fx05</v>
       </c>
       <c r="K4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" t="str">
         <f t="shared" si="1"/>
         <v>x0fx12x0x04x05</v>
@@ -2141,7 +2174,7 @@
       <c r="D5" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="15"/>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
         <v>x0fx12x0x04x05</v>
@@ -2154,7 +2187,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
         <v>x0fx12x0x05x05</v>
@@ -2165,7 +2198,7 @@
       <c r="D6" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="15"/>
       <c r="J6" t="str">
         <f>"x0fx12x"&amp;K6&amp;"x05"</f>
         <v>x0fx12x0x05x05</v>
@@ -2178,7 +2211,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
         <v>x0fx12x0x08x05</v>
@@ -2189,7 +2222,7 @@
       <c r="D7" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="15"/>
       <c r="J7" t="str">
         <f t="shared" ref="J7:J11" si="2">"x0fx12x"&amp;K7&amp;"x05"</f>
         <v>x0fx12x0x08x05</v>
@@ -2202,206 +2235,206 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
         <v>x0fx12x0x04?x05</v>
       </c>
       <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
         <v>111</v>
       </c>
-      <c r="D8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="15"/>
       <c r="J8" t="str">
         <f t="shared" si="2"/>
         <v>x0fx12x0x04?x05</v>
       </c>
       <c r="K8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" t="s">
         <v>111</v>
       </c>
-      <c r="L8" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
         <v>x0fx12x0x06x05</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="13"/>
+        <v>114</v>
+      </c>
+      <c r="I9" s="15"/>
       <c r="J9" t="str">
         <f t="shared" si="2"/>
         <v>x0fx12x0x06x05</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
         <v>x0fx12x0x07x05</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="I10" s="15"/>
       <c r="J10" t="str">
         <f t="shared" si="2"/>
         <v>x0fx12x0x07x05</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
         <v>x0fx12x0x01x05</v>
       </c>
       <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
         <v>117</v>
       </c>
-      <c r="D11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="15"/>
       <c r="J11" t="str">
         <f t="shared" si="2"/>
         <v>x0fx12x0x01x05</v>
       </c>
       <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
         <v>117</v>
-      </c>
-      <c r="L11" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" t="s">
         <v>133</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>134</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>135</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>136</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>137</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" t="s">
         <v>138</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>139</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="s">
         <v>140</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13" t="s">
         <v>141</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
         <v>142</v>
       </c>
-      <c r="M13" t="s">
+      <c r="P13" t="s">
         <v>143</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
         <v>144</v>
-      </c>
-      <c r="O13" t="s">
-        <v>145</v>
-      </c>
-      <c r="P13" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14" t="str">
         <f>"x0fx40x0"&amp;DEC2HEX(COUNT(C14:Q14))&amp;D14&amp;E14&amp;F14&amp;G14&amp;H14&amp;I14&amp;J14&amp;K14&amp;L14&amp;M14&amp;N14&amp;O14&amp;P14&amp;Q14</f>
         <v>x0fx40x00</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B15" t="str">
         <f>"x0fx40x0"&amp;DEC2HEX(COLUMNS(C15:Q15)-COUNTBLANK(C15:Q15))&amp;C15&amp;D15&amp;E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15&amp;M15&amp;N15&amp;O15&amp;P15&amp;Q15</f>
         <v>x0fx40x04x12x02x03xff</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
+      <c r="D15" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
+      <c r="B16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2912,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B43ED63-8EC3-4BB9-A8A5-E23EC62450F6}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2925,19 +2958,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="A1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -2952,7 +2985,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
         <v>101</v>
@@ -2963,10 +2996,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2976,99 +3024,163 @@
       <c r="B5" t="s">
         <v>104</v>
       </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
         <v>114</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="str">
+        <f>"0x"&amp;DEC2HEX(32)</f>
+        <v>0x20</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="I12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>125</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Additional tools/HexCommandGenerator.xlsx
+++ b/Additional tools/HexCommandGenerator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPlsicik\Documents\GitHub\RVC\Additional tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B353EE8F-F522-4CA4-B839-008B430E133D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A563DA6E-93CB-4744-9AC3-2B5B8C83EEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C0407B85-B327-42D9-9F5E-F62690023138}"/>
+    <workbookView xWindow="-28920" yWindow="-3720" windowWidth="29040" windowHeight="15840" xr2:uid="{C0407B85-B327-42D9-9F5E-F62690023138}"/>
   </bookViews>
   <sheets>
     <sheet name="CommandGenerator" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="217">
   <si>
     <t>x0f</t>
   </si>
@@ -490,21 +490,9 @@
     <t>command</t>
   </si>
   <si>
-    <t>Normal mode</t>
-  </si>
-  <si>
-    <t>Nastavit register mode podla pouzitia filtrov sprav 0x00 alebo 0x08. Pouzit prikaz WRITE_REG</t>
-  </si>
-  <si>
     <t>Init process</t>
   </si>
   <si>
-    <t>End communication process</t>
-  </si>
-  <si>
-    <t>Nastavit reset mod obvodu SJA1000 zapisom hodnoty 0x01 do registra Mode (adresa 0). Pouzit prikaz WRITE_REG</t>
-  </si>
-  <si>
     <t>0x1F</t>
   </si>
   <si>
@@ -614,13 +602,196 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>init seqvence of commands</t>
+  </si>
+  <si>
+    <t>Set Reset mode</t>
+  </si>
+  <si>
+    <t>Set ClockDiv</t>
+  </si>
+  <si>
+    <t>x00</t>
+  </si>
+  <si>
+    <t>x01</t>
+  </si>
+  <si>
+    <t>xC0</t>
+  </si>
+  <si>
+    <t>x1F</t>
+  </si>
+  <si>
+    <t>Command Generator</t>
+  </si>
+  <si>
+    <t>WRITE</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>USB2CAN datasheet commands</t>
+  </si>
+  <si>
+    <t>x13</t>
+  </si>
+  <si>
+    <t>x14</t>
+  </si>
+  <si>
+    <t>Set Output Control</t>
+  </si>
+  <si>
+    <t>Set Mode reg</t>
+  </si>
+  <si>
+    <t>Set Normal mode</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>Set Interrupt enable</t>
+  </si>
+  <si>
+    <t>x21</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>TCR</t>
+  </si>
+  <si>
+    <t>Set ACCep CODE</t>
+  </si>
+  <si>
+    <t>SET Accep MASK</t>
+  </si>
+  <si>
+    <t>x04</t>
+  </si>
+  <si>
+    <t>x05</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>x08</t>
+  </si>
+  <si>
+    <t>Set Bus Timing 0</t>
+  </si>
+  <si>
+    <t>Set Bus Timing 1</t>
+  </si>
+  <si>
+    <t>x06</t>
+  </si>
+  <si>
+    <t>x07</t>
+  </si>
+  <si>
+    <t>xDA</t>
+  </si>
+  <si>
+    <t>BIT 7</t>
+  </si>
+  <si>
+    <t>BIT 6</t>
+  </si>
+  <si>
+    <t>BIT 5</t>
+  </si>
+  <si>
+    <t>BIT 4</t>
+  </si>
+  <si>
+    <t>BIT 3</t>
+  </si>
+  <si>
+    <t>BIT 2</t>
+  </si>
+  <si>
+    <t>BIT 1</t>
+  </si>
+  <si>
+    <t>BIT 0</t>
+  </si>
+  <si>
+    <t>SJW.1</t>
+  </si>
+  <si>
+    <t>SJW.0</t>
+  </si>
+  <si>
+    <t>BRP.5</t>
+  </si>
+  <si>
+    <t>BRP.4</t>
+  </si>
+  <si>
+    <t>BRP.3</t>
+  </si>
+  <si>
+    <t>BRP.2</t>
+  </si>
+  <si>
+    <t>BRP.1</t>
+  </si>
+  <si>
+    <t>BRP.0</t>
+  </si>
+  <si>
+    <t>Setting of oscillator &amp; synch jump Width</t>
+  </si>
+  <si>
+    <t>Set length of the bit period</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>TSEG2.2</t>
+  </si>
+  <si>
+    <t>TSEG2.1</t>
+  </si>
+  <si>
+    <t>TSEG2.0</t>
+  </si>
+  <si>
+    <t>TSEG1.2</t>
+  </si>
+  <si>
+    <t>TSEG1.1</t>
+  </si>
+  <si>
+    <t>TSEG1.0</t>
+  </si>
+  <si>
+    <t>TSEG2.3</t>
+  </si>
+  <si>
+    <t>more in C://PP2CAN/x2can.cfg - line 111</t>
+  </si>
+  <si>
+    <t>more in C://PP2CAN/x2can.cfg - line 112</t>
+  </si>
+  <si>
+    <t>xaf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,16 +873,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -734,11 +945,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,7 +998,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -769,16 +1005,55 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1093,953 +1368,1853 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC89998-441A-4609-87CE-6352FEC4F125}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="21" max="21" width="36" customWidth="1"/>
-    <col min="22" max="22" width="48.140625" customWidth="1"/>
+    <col min="2" max="2" width="43" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="22" max="22" width="20.28515625" customWidth="1"/>
+    <col min="23" max="23" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="U2" s="20"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="str">
+        <f>_xlfn.CONCAT(C3:T3)</f>
+        <v>x0fx12x03xafx00x01</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="21" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(F3:T3)-COUNTBLANK(F3:T3))</f>
+        <v>x03</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="str">
+        <f>_xlfn.CONCAT(C4:T4)</f>
+        <v>x0fx12x00</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="21" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(F4:T4)-COUNTBLANK(F4:T4))</f>
+        <v>x00</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+    </row>
+    <row r="7" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" t="s">
+        <v>120</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>_xlfn.CONCAT(B2:S2)</f>
+    <row r="8" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="str">
+        <f>_xlfn.CONCAT(C8:T8)</f>
         <v>x0fx00x00</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B2)</f>
         <v>x00</v>
       </c>
-      <c r="D2" s="2" t="str">
-        <f>"x0"&amp;DEC2HEX(COLUMNS(E2:S2)-COUNTBLANK(E2:S2))</f>
+      <c r="E8" s="2" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(F8:T8)-COUNTBLANK(F8:T8))</f>
         <v>x00</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>_xlfn.CONCAT(B3:S3)</f>
+    <row r="9" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="str">
+        <f>_xlfn.CONCAT(C9:T9)</f>
         <v>x0fx01x00</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="str">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B3)</f>
         <v>x01</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D34" si="0">"x0"&amp;DEC2HEX(COUNT(E3:S3))</f>
+      <c r="E9" s="2" t="str">
+        <f t="shared" ref="E9:E40" si="0">"x0"&amp;DEC2HEX(COLUMNS(F9:T9)-COUNTBLANK(F9:T9))</f>
         <v>x00</v>
       </c>
-      <c r="T3">
+      <c r="U9">
         <v>1</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="str">
+    <row r="10" spans="2:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="str">
+        <f t="shared" ref="B10:B40" si="1">_xlfn.CONCAT(C10:T10)</f>
+        <v>x0fx02x00</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B4)</f>
         <v>x02</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T4" s="9">
+      <c r="U10" s="9">
         <v>2</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="V10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="W10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="X10" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="str">
+    <row r="11" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx03x00</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B5)</f>
         <v>x03</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T5">
+      <c r="U11">
         <v>3</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="str">
+    <row r="12" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx04x00</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B6)</f>
         <v>x04</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="E12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T6">
+      <c r="U12">
         <v>4</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="X12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="str">
+    <row r="13" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx06x00</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B7)</f>
         <v>x06</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="E13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T7">
+      <c r="U13">
         <v>6</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="W13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="X13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="str">
+    <row r="14" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx08x00</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B8)</f>
         <v>x08</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T8">
+      <c r="U14">
         <v>8</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="str">
+    <row r="15" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx09x00</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B9)</f>
         <v>x09</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="E15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T9">
+      <c r="U15">
         <v>9</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9" t="str">
+    <row r="16" spans="2:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx10x00</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B10)</f>
         <v>x10</v>
       </c>
-      <c r="D10" s="10" t="str">
+      <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T10" s="9">
+      <c r="U16" s="9">
         <v>16</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="W16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="X16" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="str">
+    <row r="17" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx11x00</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B11)</f>
         <v>x11</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="E17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T11">
+      <c r="U17">
         <v>17</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="V17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="W17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="X17" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9" t="str">
+    <row r="18" spans="2:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx12x00</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B12)</f>
         <v>x12</v>
       </c>
-      <c r="D12" s="10" t="str">
+      <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T12" s="9">
+      <c r="U18" s="9">
         <v>18</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="V18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="W18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="X18" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="str">
+    <row r="19" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx13x00</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B13)</f>
         <v>x13</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="E19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T13">
+      <c r="U19">
         <v>19</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="V19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="V13" s="5" t="s">
+      <c r="W19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="X19" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="str">
+    <row r="20" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx14x00</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B14)</f>
         <v>x14</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="E20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T14">
+      <c r="U20">
         <v>20</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="V20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="5" t="s">
+      <c r="W20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="X20" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="str">
+    <row r="21" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx15x00</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B15)</f>
         <v>x15</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T15">
+      <c r="U21">
         <v>21</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="V21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="5" t="s">
+      <c r="W21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="X21" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="str">
+    <row r="22" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx16x00</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B16)</f>
         <v>x16</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T16">
+      <c r="U22">
         <v>22</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="V22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="W22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="W16" s="4" t="s">
+      <c r="X22" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="str">
+    <row r="23" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx20x00</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B17)</f>
         <v>x20</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="E23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T17">
+      <c r="U23">
         <v>32</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="V23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="W23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="X23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="str">
+    <row r="24" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx21x00</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B18)</f>
         <v>x21</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="E24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T18">
+      <c r="U24">
         <v>33</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="V24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V18" s="4" t="s">
+      <c r="W24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="W18" s="4" t="s">
+      <c r="X24" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="str">
+    <row r="25" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx3Ex00</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B19)</f>
         <v>x3E</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="E25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T19">
+      <c r="U25">
         <v>62</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="V25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="W25" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="W19" s="4" t="s">
+      <c r="X25" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="str">
+    <row r="26" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx3Fx00</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B20)</f>
         <v>x3F</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="E26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T20">
+      <c r="U26">
         <v>63</v>
       </c>
-      <c r="U20" s="4" t="s">
+      <c r="V26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V20" s="5" t="s">
+      <c r="W26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="W20" s="4" t="s">
+      <c r="X26" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9" t="str">
+    <row r="27" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx40x00</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B21)</f>
         <v>x40</v>
       </c>
-      <c r="D21" s="10" t="str">
+      <c r="E27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9">
         <v>64</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="V27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="W27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="X27" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9" t="str">
+    <row r="28" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx41x00</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B22)</f>
         <v>x41</v>
       </c>
-      <c r="D22" s="10" t="str">
+      <c r="E28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9">
         <v>65</v>
       </c>
-      <c r="U22" s="11" t="s">
+      <c r="V28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V22" s="12" t="s">
+      <c r="W28" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="W22" s="4" t="s">
+      <c r="X28" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="str">
+    <row r="29" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx42x00</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B23)</f>
         <v>x42</v>
       </c>
-      <c r="D23" s="2" t="str">
+      <c r="E29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T23">
+      <c r="U29">
         <v>66</v>
       </c>
-      <c r="U23" s="4" t="s">
+      <c r="V29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V23" s="4" t="s">
+      <c r="W29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="X29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="str">
+    <row r="30" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx43x00</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B24)</f>
         <v>x43</v>
       </c>
-      <c r="D24" s="2" t="str">
+      <c r="E30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T24">
+      <c r="U30">
         <v>67</v>
       </c>
-      <c r="U24" s="4" t="s">
+      <c r="V30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="5" t="s">
+      <c r="W30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="W24" s="4" t="s">
+      <c r="X30" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="str">
+    <row r="31" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx44x00</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B25)</f>
         <v>x44</v>
       </c>
-      <c r="D25" s="2" t="str">
+      <c r="E31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T25">
+      <c r="U31">
         <v>68</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="V31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="W31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="W25" s="4" t="s">
+      <c r="X31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="str">
+    <row r="32" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx45x00</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B26)</f>
         <v>x45</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="E32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T26">
+      <c r="U32">
         <v>69</v>
       </c>
-      <c r="U26" s="4" t="s">
+      <c r="V32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V26" s="4" t="s">
+      <c r="W32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="W26" s="4" t="s">
+      <c r="X32" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="str">
+    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx46x00</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B27)</f>
         <v>x46</v>
       </c>
-      <c r="D27" s="2" t="str">
+      <c r="E33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T27">
+      <c r="U33">
         <v>70</v>
       </c>
-      <c r="U27" s="4" t="s">
+      <c r="V33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="V27" s="5" t="s">
+      <c r="W33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="W27" s="4" t="s">
+      <c r="X33" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="str">
+    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx47x00</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B28)</f>
         <v>x47</v>
       </c>
-      <c r="D28" s="2" t="str">
+      <c r="E34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T28">
+      <c r="U34">
         <v>71</v>
       </c>
-      <c r="U28" s="4" t="s">
+      <c r="V34" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="V28" s="4" t="s">
+      <c r="W34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="W28" s="4" t="s">
+      <c r="X34" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="str">
+    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx48x00</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B29)</f>
         <v>x48</v>
       </c>
-      <c r="D29" s="2" t="str">
+      <c r="E35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T29">
+      <c r="U35">
         <v>72</v>
       </c>
-      <c r="U29" s="4" t="s">
+      <c r="V35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="V29" s="4" t="s">
+      <c r="W35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="W29" s="4" t="s">
+      <c r="X35" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="str">
+    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx4Ax00</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B30)</f>
         <v>x4A</v>
       </c>
-      <c r="D30" s="2" t="str">
+      <c r="E36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T30">
+      <c r="U36">
         <v>74</v>
       </c>
-      <c r="U30" s="4" t="s">
+      <c r="V36" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="V30" s="5" t="s">
+      <c r="W36" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="W30" s="4" t="s">
+      <c r="X36" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="str">
+    <row r="37" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx60x00</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B31)</f>
         <v>x60</v>
       </c>
-      <c r="D31" s="2" t="str">
+      <c r="E37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T31">
+      <c r="U37">
         <v>96</v>
       </c>
-      <c r="U31" s="4" t="s">
+      <c r="V37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V31" s="4" t="s">
+      <c r="W37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="W31" s="4" t="s">
+      <c r="X37" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="str">
+    <row r="38" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx61x00</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B32)</f>
         <v>x61</v>
       </c>
-      <c r="D32" s="2" t="str">
+      <c r="E38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T32">
+      <c r="U38">
         <v>97</v>
       </c>
-      <c r="U32" s="4" t="s">
+      <c r="V38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V32" s="4" t="s">
+      <c r="W38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="W32" s="4" t="s">
+      <c r="X38" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="str">
+    <row r="39" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx62x00</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B33)</f>
         <v>x62</v>
       </c>
-      <c r="D33" s="2" t="str">
+      <c r="E39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T33">
+      <c r="U39">
         <v>98</v>
       </c>
-      <c r="U33" s="4" t="s">
+      <c r="V39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V33" s="5" t="s">
+      <c r="W39" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="W33" s="4" t="s">
+      <c r="X39" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="str">
+    <row r="40" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>x0fx7Fx00</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B34)</f>
         <v>x7F</v>
       </c>
-      <c r="D34" s="2" t="str">
+      <c r="E40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="T34">
+      <c r="U40">
         <v>127</v>
       </c>
-      <c r="U34" s="4" t="s">
+      <c r="V40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V34" s="4" t="s">
+      <c r="W40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="W34" s="4" t="s">
+      <c r="X40" s="4" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="41" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="2"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B42" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="19" t="str">
+        <f t="shared" ref="B43:B44" si="2">_xlfn.CONCAT(C43:T43)</f>
+        <v>x0fx02x00</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="21" t="str">
+        <f t="shared" ref="E43:E49" si="3">"x0"&amp;DEC2HEX(COLUMNS(F43:T43)-COUNTBLANK(F43:T43))</f>
+        <v>x00</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>x0fx12x02x00x01</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>x02</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" s="19" t="str">
+        <f t="shared" ref="B45:B51" si="4">_xlfn.CONCAT(C45:T45)</f>
+        <v>x0fx12x02x1FxC0</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>x02</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="35">
+        <v>4</v>
+      </c>
+      <c r="B46" s="31" t="str">
+        <f t="shared" ref="B46:B47" si="5">_xlfn.CONCAT(C46:T46)</f>
+        <v>x0fx12x02x10x00</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="33" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(F46:T46)-COUNTBLANK(F46:T46))</f>
+        <v>x02</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="W46" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="35">
+        <v>4</v>
+      </c>
+      <c r="B47" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>x0fx12x02x14xff</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="33" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(F47:T47)-COUNTBLANK(F47:T47))</f>
+        <v>x02</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="W47" s="32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>x0fx12x02x08xDA</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>x02</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v>x0fx12x02x06x00</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="38" t="str">
+        <f t="shared" si="3"/>
+        <v>x02</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="W49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" s="36" t="str">
+        <f t="shared" ref="B50" si="6">_xlfn.CONCAT(C50:T50)</f>
+        <v>x0fx13x02x07x14</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="38" t="str">
+        <f t="shared" ref="E50" si="7">"x0"&amp;DEC2HEX(COLUMNS(F50:T50)-COUNTBLANK(F50:T50))</f>
+        <v>x02</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="W50" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41">
+        <v>7</v>
+      </c>
+      <c r="B51" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>x0fx13x02x04x03</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="44" t="str">
+        <f t="shared" ref="E51" si="8">"x0"&amp;DEC2HEX(COLUMNS(F51:T51)-COUNTBLANK(F51:T51))</f>
+        <v>x02</v>
+      </c>
+      <c r="F51" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52" s="26" t="str">
+        <f>_xlfn.CONCAT(C52:U52)</f>
+        <v>x0fx20x02x00x12</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="28" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(F52:U52)-COUNTBLANK(F52:U52))</f>
+        <v>x02</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53" s="26" t="str">
+        <f>_xlfn.CONCAT(C53:U53)</f>
+        <v>x0fx21x02x01x01</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="28" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(F53:U53)-COUNTBLANK(F53:U53))</f>
+        <v>x02</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29"/>
+      <c r="V53" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54" s="19" t="str">
+        <f t="shared" ref="B54:B55" si="9">_xlfn.CONCAT(C54:T54)</f>
+        <v>x0f0x03x00</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="21" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(F54:T54)-COUNTBLANK(F54:T54))</f>
+        <v>x00</v>
+      </c>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>x0fx12x02x00x00</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="21" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(F55:T55)-COUNTBLANK(F55:T55))</f>
+        <v>x02</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B42:V42"/>
+    <mergeCell ref="B6:X6"/>
+    <mergeCell ref="B1:T1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2064,7 +3239,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -2112,7 +3287,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B3" t="str">
         <f>"x0fx12x"&amp;C3&amp;"x05"</f>
@@ -2125,7 +3300,7 @@
         <v>100</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J5" si="0">"x0fx12x"&amp;K3&amp;"x05"</f>
@@ -2145,7 +3320,7 @@
         <v>x0fx12x0x1Fx05</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
         <v>101</v>
@@ -2156,7 +3331,7 @@
         <v>x0fx12x0x1Fx05</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L4" t="s">
         <v>101</v>
@@ -2332,109 +3507,109 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
         <v>130</v>
       </c>
-      <c r="D13" t="s">
+      <c r="H13" t="s">
         <v>131</v>
       </c>
-      <c r="E13" t="s">
+      <c r="I13" t="s">
         <v>132</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
         <v>133</v>
       </c>
-      <c r="G13" t="s">
+      <c r="K13" t="s">
         <v>134</v>
       </c>
-      <c r="H13" t="s">
+      <c r="L13" t="s">
         <v>135</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M13" t="s">
         <v>136</v>
       </c>
-      <c r="J13" t="s">
+      <c r="N13" t="s">
         <v>137</v>
       </c>
-      <c r="K13" t="s">
+      <c r="O13" t="s">
         <v>138</v>
       </c>
-      <c r="L13" t="s">
+      <c r="P13" t="s">
         <v>139</v>
       </c>
-      <c r="M13" t="s">
+      <c r="Q13" t="s">
         <v>140</v>
-      </c>
-      <c r="N13" t="s">
-        <v>141</v>
-      </c>
-      <c r="O13" t="s">
-        <v>142</v>
-      </c>
-      <c r="P13" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B14" t="str">
         <f>"x0fx40x0"&amp;DEC2HEX(COUNT(C14:Q14))&amp;D14&amp;E14&amp;F14&amp;G14&amp;H14&amp;I14&amp;J14&amp;K14&amp;L14&amp;M14&amp;N14&amp;O14&amp;P14&amp;Q14</f>
         <v>x0fx40x00</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B15" t="str">
         <f>"x0fx40x0"&amp;DEC2HEX(COLUMNS(C15:Q15)-COUNTBLANK(C15:Q15))&amp;C15&amp;D15&amp;E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15&amp;M15&amp;N15&amp;O15&amp;P15&amp;Q15</f>
         <v>x0fx40x04x12x02x03xff</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="C15" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
+      <c r="B16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2945,21 +4120,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B43ED63-8EC3-4BB9-A8A5-E23EC62450F6}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -2985,7 +4160,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>101</v>
@@ -3002,7 +4177,7 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -3025,7 +4200,7 @@
         <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -3045,7 +4220,7 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3061,7 +4236,7 @@
         <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3073,26 +4248,26 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="str">
+      <c r="A10" s="13" t="str">
         <f>"0x"&amp;DEC2HEX(32)</f>
         <v>0x20</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>155</v>
+      <c r="H10" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
         <v>153</v>
-      </c>
-      <c r="C11" t="s">
-        <v>157</v>
       </c>
       <c r="H11" t="s">
         <v>108</v>
@@ -3103,83 +4278,200 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
         <v>153</v>
-      </c>
-      <c r="C12" t="s">
-        <v>157</v>
       </c>
       <c r="H12" t="s">
         <v>116</v>
       </c>
       <c r="I12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="17"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G14" s="16" t="s">
-        <v>159</v>
+      <c r="G14" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>122</v>
-      </c>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="40"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C18:H18"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Additional tools/HexCommandGenerator.xlsx
+++ b/Additional tools/HexCommandGenerator.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPlsicik\Documents\GitHub\RVC\Additional tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A563DA6E-93CB-4744-9AC3-2B5B8C83EEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6B7A96-E84F-4EBE-8F3F-3106BA8AB908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3720" windowWidth="29040" windowHeight="15840" xr2:uid="{C0407B85-B327-42D9-9F5E-F62690023138}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{C0407B85-B327-42D9-9F5E-F62690023138}"/>
   </bookViews>
   <sheets>
     <sheet name="CommandGenerator" sheetId="1" r:id="rId1"/>
     <sheet name="FUC" sheetId="5" r:id="rId2"/>
     <sheet name="USB2CAN COMMANDS" sheetId="3" r:id="rId3"/>
     <sheet name="SJA1000 reg adress" sheetId="4" r:id="rId4"/>
+    <sheet name="OwnCMDlist" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="225">
   <si>
     <t>x0f</t>
   </si>
@@ -785,6 +786,30 @@
   </si>
   <si>
     <t>xaf</t>
+  </si>
+  <si>
+    <t>#getmode</t>
+  </si>
+  <si>
+    <t>#init</t>
+  </si>
+  <si>
+    <t>#readreg</t>
+  </si>
+  <si>
+    <t>#busoff</t>
+  </si>
+  <si>
+    <t>#normal</t>
+  </si>
+  <si>
+    <t>#config</t>
+  </si>
+  <si>
+    <t>x0fx12x02x00x01</t>
+  </si>
+  <si>
+    <t>#reset</t>
   </si>
 </sst>
 </file>
@@ -1006,27 +1031,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1054,6 +1064,21 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1370,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC89998-441A-4609-87CE-6352FEC4F125}">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F10" sqref="F9:V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,159 +1409,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="20"/>
+      <c r="U2" s="16"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="str">
+      <c r="B3" s="15" t="str">
         <f>_xlfn.CONCAT(C3:T3)</f>
         <v>x0fx12x03xafx00x01</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="21" t="str">
+      <c r="E3" s="17" t="str">
         <f>"x0"&amp;DEC2HEX(COLUMNS(F3:T3)-COUNTBLANK(F3:T3))</f>
         <v>x03</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="19" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="15" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="str">
+      <c r="B4" s="15" t="str">
         <f>_xlfn.CONCAT(C4:T4)</f>
         <v>x0fx12x00</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="21" t="str">
+      <c r="E4" s="17" t="str">
         <f>"x0"&amp;DEC2HEX(COLUMNS(F4:T4)-COUNTBLANK(F4:T4))</f>
         <v>x00</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="19" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="15" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1544,31 +1569,31 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
     </row>
     <row r="7" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
@@ -2630,70 +2655,70 @@
     </row>
     <row r="41" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" s="2"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
-      <c r="B43" s="19" t="str">
+      <c r="B43" s="15" t="str">
         <f t="shared" ref="B43:B44" si="2">_xlfn.CONCAT(C43:T43)</f>
         <v>x0fx02x00</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="23" t="s">
+      <c r="C43" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="21" t="str">
+      <c r="E43" s="17" t="str">
         <f t="shared" ref="E43:E49" si="3">"x0"&amp;DEC2HEX(COLUMNS(F43:T43)-COUNTBLANK(F43:T43))</f>
         <v>x00</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="24" t="s">
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="19" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2701,41 +2726,41 @@
       <c r="A44">
         <v>2</v>
       </c>
-      <c r="B44" s="19" t="str">
+      <c r="B44" s="15" t="str">
         <f t="shared" si="2"/>
         <v>x0fx12x02x00x01</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E44" s="21" t="str">
+      <c r="E44" s="17" t="str">
         <f t="shared" si="3"/>
         <v>x02</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="24" t="s">
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="19" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2743,131 +2768,131 @@
       <c r="A45">
         <v>3</v>
       </c>
-      <c r="B45" s="19" t="str">
+      <c r="B45" s="15" t="str">
         <f t="shared" ref="B45:B51" si="4">_xlfn.CONCAT(C45:T45)</f>
         <v>x0fx12x02x1FxC0</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="23" t="s">
+      <c r="C45" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E45" s="21" t="str">
+      <c r="E45" s="17" t="str">
         <f t="shared" si="3"/>
         <v>x02</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="24" t="s">
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="35">
+    <row r="46" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
         <v>4</v>
       </c>
-      <c r="B46" s="31" t="str">
+      <c r="B46" s="26" t="str">
         <f t="shared" ref="B46:B47" si="5">_xlfn.CONCAT(C46:T46)</f>
         <v>x0fx12x02x10x00</v>
       </c>
-      <c r="C46" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="32" t="s">
+      <c r="C46" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="33" t="str">
+      <c r="E46" s="28" t="str">
         <f>"x0"&amp;DEC2HEX(COLUMNS(F46:T46)-COUNTBLANK(F46:T46))</f>
         <v>x02</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="F46" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="G46" s="32" t="s">
+      <c r="G46" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="34" t="s">
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="W46" s="32" t="s">
+      <c r="W46" s="27" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="35">
+    <row r="47" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="30">
         <v>4</v>
       </c>
-      <c r="B47" s="31" t="str">
+      <c r="B47" s="26" t="str">
         <f t="shared" si="5"/>
         <v>x0fx12x02x14xff</v>
       </c>
-      <c r="C47" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="32" t="s">
+      <c r="C47" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="E47" s="33" t="str">
+      <c r="E47" s="28" t="str">
         <f>"x0"&amp;DEC2HEX(COLUMNS(F47:T47)-COUNTBLANK(F47:T47))</f>
         <v>x02</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F47" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="G47" s="32" t="s">
+      <c r="G47" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="34" t="s">
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="W47" s="32" t="s">
+      <c r="W47" s="27" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2875,41 +2900,41 @@
       <c r="A48">
         <v>5</v>
       </c>
-      <c r="B48" s="19" t="str">
+      <c r="B48" s="15" t="str">
         <f t="shared" si="4"/>
         <v>x0fx12x02x08xDA</v>
       </c>
-      <c r="C48" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="23" t="s">
+      <c r="C48" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="21" t="str">
+      <c r="E48" s="17" t="str">
         <f t="shared" si="3"/>
         <v>x02</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="23" t="s">
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="18" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2917,41 +2942,41 @@
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="B49" s="36" t="str">
+      <c r="B49" s="31" t="str">
         <f t="shared" si="4"/>
         <v>x0fx12x02x06x00</v>
       </c>
-      <c r="C49" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="37" t="s">
+      <c r="C49" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="38" t="str">
+      <c r="E49" s="33" t="str">
         <f t="shared" si="3"/>
         <v>x02</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="F49" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="G49" s="39" t="s">
+      <c r="G49" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="37" t="s">
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="32" t="s">
         <v>183</v>
       </c>
       <c r="W49" t="s">
@@ -2962,86 +2987,86 @@
       <c r="A50">
         <v>6</v>
       </c>
-      <c r="B50" s="36" t="str">
+      <c r="B50" s="31" t="str">
         <f t="shared" ref="B50" si="6">_xlfn.CONCAT(C50:T50)</f>
         <v>x0fx13x02x07x14</v>
       </c>
-      <c r="C50" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="37" t="s">
+      <c r="C50" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="38" t="str">
+      <c r="E50" s="33" t="str">
         <f t="shared" ref="E50" si="7">"x0"&amp;DEC2HEX(COLUMNS(F50:T50)-COUNTBLANK(F50:T50))</f>
         <v>x02</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="G50" s="39" t="s">
+      <c r="G50" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="37" t="s">
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="32" t="s">
         <v>184</v>
       </c>
       <c r="W50" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41">
+    <row r="51" spans="1:23" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36">
         <v>7</v>
       </c>
-      <c r="B51" s="42" t="str">
+      <c r="B51" s="37" t="str">
         <f t="shared" si="4"/>
         <v>x0fx13x02x04x03</v>
       </c>
-      <c r="C51" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="43" t="s">
+      <c r="C51" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="44" t="str">
+      <c r="E51" s="39" t="str">
         <f t="shared" ref="E51" si="8">"x0"&amp;DEC2HEX(COLUMNS(F51:T51)-COUNTBLANK(F51:T51))</f>
         <v>x02</v>
       </c>
-      <c r="F51" s="45" t="s">
+      <c r="F51" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="G51" s="45" t="s">
+      <c r="G51" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="43" t="s">
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="38" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3049,41 +3074,41 @@
       <c r="A52">
         <v>8</v>
       </c>
-      <c r="B52" s="26" t="str">
+      <c r="B52" s="21" t="str">
         <f>_xlfn.CONCAT(C52:U52)</f>
         <v>x0fx20x02x00x12</v>
       </c>
-      <c r="C52" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="27" t="s">
+      <c r="C52" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="E52" s="28" t="str">
+      <c r="E52" s="23" t="str">
         <f>"x0"&amp;DEC2HEX(COLUMNS(F52:U52)-COUNTBLANK(F52:U52))</f>
         <v>x02</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="F52" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G52" s="30" t="s">
+      <c r="G52" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="27" t="s">
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="22" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3091,41 +3116,41 @@
       <c r="A53">
         <v>8</v>
       </c>
-      <c r="B53" s="26" t="str">
+      <c r="B53" s="21" t="str">
         <f>_xlfn.CONCAT(C53:U53)</f>
         <v>x0fx21x02x01x01</v>
       </c>
-      <c r="C53" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="27" t="s">
+      <c r="C53" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E53" s="28" t="str">
+      <c r="E53" s="23" t="str">
         <f>"x0"&amp;DEC2HEX(COLUMNS(F53:U53)-COUNTBLANK(F53:U53))</f>
         <v>x02</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G53" s="30" t="s">
+      <c r="G53" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="27" t="s">
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="22" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3133,37 +3158,37 @@
       <c r="A54">
         <v>9</v>
       </c>
-      <c r="B54" s="19" t="str">
+      <c r="B54" s="15" t="str">
         <f t="shared" ref="B54:B55" si="9">_xlfn.CONCAT(C54:T54)</f>
         <v>x0f0x03x00</v>
       </c>
-      <c r="C54" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="23" t="s">
+      <c r="C54" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="E54" s="21" t="str">
+      <c r="E54" s="17" t="str">
         <f>"x0"&amp;DEC2HEX(COLUMNS(F54:T54)-COUNTBLANK(F54:T54))</f>
         <v>x00</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="25" t="s">
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="20" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3171,41 +3196,41 @@
       <c r="A55">
         <v>10</v>
       </c>
-      <c r="B55" s="19" t="str">
+      <c r="B55" s="15" t="str">
         <f t="shared" si="9"/>
         <v>x0fx12x02x00x00</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="23" t="s">
+      <c r="C55" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="21" t="str">
+      <c r="E55" s="17" t="str">
         <f>"x0"&amp;DEC2HEX(COLUMNS(F55:T55)-COUNTBLANK(F55:T55))</f>
         <v>x02</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="G55" s="20" t="s">
+      <c r="G55" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="23" t="s">
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="18" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3238,30 +3263,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
@@ -3286,7 +3311,7 @@
       <c r="W2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="44" t="s">
         <v>122</v>
       </c>
       <c r="B3" t="str">
@@ -3299,7 +3324,7 @@
       <c r="D3" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="44" t="s">
         <v>123</v>
       </c>
       <c r="J3" t="str">
@@ -3314,7 +3339,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="44"/>
       <c r="B4" t="str">
         <f t="shared" ref="B4:B11" si="1">"x0fx12x"&amp;C4&amp;"x05"</f>
         <v>x0fx12x0x1Fx05</v>
@@ -3325,7 +3350,7 @@
       <c r="D4" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="44"/>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>x0fx12x0x1Fx05</v>
@@ -3338,7 +3363,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="44"/>
       <c r="B5" t="str">
         <f t="shared" si="1"/>
         <v>x0fx12x0x04x05</v>
@@ -3349,7 +3374,7 @@
       <c r="D5" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="44"/>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
         <v>x0fx12x0x04x05</v>
@@ -3362,7 +3387,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="44"/>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
         <v>x0fx12x0x05x05</v>
@@ -3373,7 +3398,7 @@
       <c r="D6" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="44"/>
       <c r="J6" t="str">
         <f>"x0fx12x"&amp;K6&amp;"x05"</f>
         <v>x0fx12x0x05x05</v>
@@ -3386,7 +3411,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="44"/>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
         <v>x0fx12x0x08x05</v>
@@ -3397,7 +3422,7 @@
       <c r="D7" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="44"/>
       <c r="J7" t="str">
         <f t="shared" ref="J7:J11" si="2">"x0fx12x"&amp;K7&amp;"x05"</f>
         <v>x0fx12x0x08x05</v>
@@ -3410,7 +3435,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="44"/>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
         <v>x0fx12x0x04?x05</v>
@@ -3421,7 +3446,7 @@
       <c r="D8" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="44"/>
       <c r="J8" t="str">
         <f t="shared" si="2"/>
         <v>x0fx12x0x04?x05</v>
@@ -3434,7 +3459,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="44"/>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
         <v>x0fx12x0x06x05</v>
@@ -3445,7 +3470,7 @@
       <c r="D9" t="s">
         <v>114</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="44"/>
       <c r="J9" t="str">
         <f t="shared" si="2"/>
         <v>x0fx12x0x06x05</v>
@@ -3458,7 +3483,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="44"/>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
         <v>x0fx12x0x07x05</v>
@@ -3469,7 +3494,7 @@
       <c r="D10" t="s">
         <v>115</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="44"/>
       <c r="J10" t="str">
         <f t="shared" si="2"/>
         <v>x0fx12x0x07x05</v>
@@ -3482,7 +3507,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="44"/>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
         <v>x0fx12x0x01x05</v>
@@ -3493,7 +3518,7 @@
       <c r="D11" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="44"/>
       <c r="J11" t="str">
         <f t="shared" si="2"/>
         <v>x0fx12x0x01x05</v>
@@ -4133,19 +4158,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4294,36 +4319,36 @@
       <c r="C13" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16" t="s">
+      <c r="I13" s="45"/>
+      <c r="J13" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="16"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G14" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -4358,7 +4383,7 @@
       <c r="B20" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="35" t="s">
         <v>208</v>
       </c>
       <c r="D20" t="s">
@@ -4381,20 +4406,20 @@
       <c r="A21">
         <v>0</v>
       </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="35"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4449,16 +4474,16 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4475,4 +4500,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A5977F-5E27-47AA-A937-D45A32611ECA}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Additional tools/HexCommandGenerator.xlsx
+++ b/Additional tools/HexCommandGenerator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPlsicik\Documents\GitHub\RVC\Additional tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6B7A96-E84F-4EBE-8F3F-3106BA8AB908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE58E970-3673-4CD6-B8DB-F39631348BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{C0407B85-B327-42D9-9F5E-F62690023138}"/>
+    <workbookView xWindow="-28920" yWindow="-3720" windowWidth="29040" windowHeight="15840" xr2:uid="{C0407B85-B327-42D9-9F5E-F62690023138}"/>
   </bookViews>
   <sheets>
     <sheet name="CommandGenerator" sheetId="1" r:id="rId1"/>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC89998-441A-4609-87CE-6352FEC4F125}">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F10" sqref="F9:V10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3034,13 +3034,13 @@
       </c>
       <c r="B51" s="37" t="str">
         <f t="shared" si="4"/>
-        <v>x0fx13x02x04x03</v>
+        <v>x0fx04x02x04x03</v>
       </c>
       <c r="C51" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E51" s="39" t="str">
         <f t="shared" ref="E51" si="8">"x0"&amp;DEC2HEX(COLUMNS(F51:T51)-COUNTBLANK(F51:T51))</f>
@@ -3251,7 +3251,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3263,30 +3263,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
@@ -3644,6 +3644,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4148,7 +4149,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4506,8 +4507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A5977F-5E27-47AA-A937-D45A32611ECA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Additional tools/HexCommandGenerator.xlsx
+++ b/Additional tools/HexCommandGenerator.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPlsicik\Documents\GitHub\RVC\Additional tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE58E970-3673-4CD6-B8DB-F39631348BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21F5A7D-0BD4-4755-AC9E-F791D90D75B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3720" windowWidth="29040" windowHeight="15840" xr2:uid="{C0407B85-B327-42D9-9F5E-F62690023138}"/>
+    <workbookView xWindow="-28920" yWindow="-3720" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{C0407B85-B327-42D9-9F5E-F62690023138}"/>
   </bookViews>
   <sheets>
     <sheet name="CommandGenerator" sheetId="1" r:id="rId1"/>
-    <sheet name="FUC" sheetId="5" r:id="rId2"/>
-    <sheet name="USB2CAN COMMANDS" sheetId="3" r:id="rId3"/>
-    <sheet name="SJA1000 reg adress" sheetId="4" r:id="rId4"/>
-    <sheet name="OwnCMDlist" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="FUC" sheetId="5" r:id="rId3"/>
+    <sheet name="USB2CAN COMMANDS" sheetId="3" r:id="rId4"/>
+    <sheet name="SJA1000 reg adress" sheetId="4" r:id="rId5"/>
+    <sheet name="OwnCMDlist" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="263">
   <si>
     <t>x0f</t>
   </si>
@@ -443,60 +444,24 @@
     <t>clock</t>
   </si>
   <si>
-    <t>divider</t>
-  </si>
-  <si>
     <t>acceptance code</t>
   </si>
   <si>
     <t>acceptance mask</t>
   </si>
   <si>
-    <t>0x08</t>
-  </si>
-  <si>
-    <t>0x05</t>
-  </si>
-  <si>
-    <t>0x04</t>
-  </si>
-  <si>
-    <t>0x00</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
-    <t>0x04?</t>
-  </si>
-  <si>
     <t>Interrupt enable</t>
   </si>
   <si>
-    <t>0x06</t>
-  </si>
-  <si>
-    <t>0x07</t>
-  </si>
-  <si>
     <t>Bus Timing 1</t>
   </si>
   <si>
-    <t>Bus Timing 2</t>
-  </si>
-  <si>
-    <t>0x01</t>
-  </si>
-  <si>
     <t>command</t>
   </si>
   <si>
-    <t>Init process</t>
-  </si>
-  <si>
-    <t>0x1F</t>
-  </si>
-  <si>
     <t>cmd [dec]</t>
   </si>
   <si>
@@ -575,36 +540,12 @@
     <t>Whole command</t>
   </si>
   <si>
-    <t>0;1;2;3</t>
-  </si>
-  <si>
-    <t>Output contro</t>
-  </si>
-  <si>
     <t>Bus Timing 0</t>
   </si>
   <si>
     <t>x20</t>
   </si>
   <si>
-    <t>hodnota</t>
-  </si>
-  <si>
-    <t>max hodnota</t>
-  </si>
-  <si>
-    <t>&lt; Critical Limit</t>
-  </si>
-  <si>
-    <t>CMD_TRANSMIT_CRITICAL_LIMIT</t>
-  </si>
-  <si>
-    <t>CMD_Baud_Rate</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>init seqvence of commands</t>
   </si>
   <si>
@@ -653,9 +594,6 @@
     <t>Set Normal mode</t>
   </si>
   <si>
-    <t>0x03</t>
-  </si>
-  <si>
     <t>Set Interrupt enable</t>
   </si>
   <si>
@@ -665,9 +603,6 @@
     <t>TCL</t>
   </si>
   <si>
-    <t>TCR</t>
-  </si>
-  <si>
     <t>Set ACCep CODE</t>
   </si>
   <si>
@@ -782,9 +717,6 @@
     <t>more in C://PP2CAN/x2can.cfg - line 111</t>
   </si>
   <si>
-    <t>more in C://PP2CAN/x2can.cfg - line 112</t>
-  </si>
-  <si>
     <t>xaf</t>
   </si>
   <si>
@@ -810,13 +742,196 @@
   </si>
   <si>
     <t>#reset</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>S/R CAN messages</t>
+  </si>
+  <si>
+    <t>x0fx12x03x08x06x00</t>
+  </si>
+  <si>
+    <t>Bus Timing 0 1</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>x1f</t>
+  </si>
+  <si>
+    <t>x04?</t>
+  </si>
+  <si>
+    <t>Config mode</t>
+  </si>
+  <si>
+    <t>SetResetMode</t>
+  </si>
+  <si>
+    <t>ClockDiv</t>
+  </si>
+  <si>
+    <t>AccepCode</t>
+  </si>
+  <si>
+    <t>AccepMask</t>
+  </si>
+  <si>
+    <t>OutCtrl</t>
+  </si>
+  <si>
+    <t>InterruptEn</t>
+  </si>
+  <si>
+    <t>TRL</t>
+  </si>
+  <si>
+    <t>NormalMode</t>
+  </si>
+  <si>
+    <t>ModeReg</t>
+  </si>
+  <si>
+    <t>x06x00</t>
+  </si>
+  <si>
+    <t>x1D</t>
+  </si>
+  <si>
+    <t>x0fx02x00</t>
+  </si>
+  <si>
+    <t>x0fx12x02x1FxC0</t>
+  </si>
+  <si>
+    <t>x0fx12x02x10x00</t>
+  </si>
+  <si>
+    <t>x0fx12x02x14xff</t>
+  </si>
+  <si>
+    <t>x0fx12x02x08xDA</t>
+  </si>
+  <si>
+    <t>Set Bus Timing 0/1</t>
+  </si>
+  <si>
+    <t>x0fx12x02x04x03</t>
+  </si>
+  <si>
+    <t>x0fx12x02x06x00</t>
+  </si>
+  <si>
+    <t>x0fx13x02x07x14</t>
+  </si>
+  <si>
+    <t>x0fx03x00</t>
+  </si>
+  <si>
+    <t>x0fx12x02x00x00</t>
+  </si>
+  <si>
+    <t>x0fx20x03x20x00x12</t>
+  </si>
+  <si>
+    <t>x0fx21x03x21x01x01</t>
+  </si>
+  <si>
+    <t>x0fx12x03x21x01x01</t>
+  </si>
+  <si>
+    <t>x0fx12x03x20x00x12</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>x0fx10x02x00x01</t>
+  </si>
+  <si>
+    <t>x0fx10x02x1FxC0</t>
+  </si>
+  <si>
+    <t>x0fx10x02x10x00</t>
+  </si>
+  <si>
+    <t>x0fx10x02x14xff</t>
+  </si>
+  <si>
+    <t>x0fx10x02x08xDA</t>
+  </si>
+  <si>
+    <t>x0fx10x02x04x03</t>
+  </si>
+  <si>
+    <t>x0fx10x03x08x06x00</t>
+  </si>
+  <si>
+    <t>x0fx10x03x21x01x01</t>
+  </si>
+  <si>
+    <t>x0fx10x03x20x00x12</t>
+  </si>
+  <si>
+    <t>x0fx10x02x00x00</t>
+  </si>
+  <si>
+    <t>x0fx20x02x00x18</t>
+  </si>
+  <si>
+    <t>x0fx20x02x01x11</t>
+  </si>
+  <si>
+    <t>x0fx20x02x06x00</t>
+  </si>
+  <si>
+    <t>Hodnot HEX</t>
+  </si>
+  <si>
+    <t>more in C:\PP2CAN\x2can.cfg - line 111</t>
+  </si>
+  <si>
+    <t>more in C:\PP2CAN\x2can.cfg - line 112</t>
+  </si>
+  <si>
+    <t>more in C:\PP2CAN\x2can.cfg - line 110 and more</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>BT0</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>BasicCAN Address</t>
+  </si>
+  <si>
+    <t>PeliCAN Address</t>
+  </si>
+  <si>
+    <t>interrupt EN</t>
+  </si>
+  <si>
+    <t>accCode 0</t>
+  </si>
+  <si>
+    <t>accMask 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,8 +1029,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -943,6 +1098,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,7 +1161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1046,7 +1207,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1064,9 +1224,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,7 +1233,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1393,129 +1619,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC89998-441A-4609-87CE-6352FEC4F125}">
-  <dimension ref="A1:X55"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:U9"/>
+    <sheetView topLeftCell="B55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="22" max="22" width="20.28515625" customWidth="1"/>
-    <col min="23" max="23" width="48.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="7" max="22" width="3.7109375" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" customWidth="1"/>
+    <col min="24" max="24" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-    </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="16" t="s">
+    <row r="1" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C1" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+    </row>
+    <row r="2" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C2" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="O2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="Q2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="S2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="T2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="U2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="16"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="str">
-        <f>_xlfn.CONCAT(C3:T3)</f>
+      <c r="V2" s="16"/>
+    </row>
+    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C3" s="15" t="str">
+        <f>_xlfn.CONCAT(D3:U3)</f>
         <v>x0fx12x03xafx00x01</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>0</v>
-      </c>
       <c r="D3" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="17" t="str">
-        <f>"x0"&amp;DEC2HEX(COLUMNS(F3:T3)-COUNTBLANK(F3:T3))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="17" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G3:U3)-COUNTBLANK(G3:U3))</f>
         <v>x03</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>216</v>
-      </c>
       <c r="G3" s="16" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="16"/>
+        <v>139</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>140</v>
+      </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
@@ -1527,26 +1754,26 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="str">
-        <f>_xlfn.CONCAT(C4:T4)</f>
-        <v>x0fx12x00</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>0</v>
+      <c r="U3" s="16"/>
+      <c r="V3" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C4" s="15" t="str">
+        <f>_xlfn.CONCAT(D4:U4)</f>
+        <v>x0fx10x00</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="17" t="str">
-        <f>"x0"&amp;DEC2HEX(COLUMNS(F4:T4)-COUNTBLANK(F4:T4))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="17" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G4:U4)-COUNTBLANK(G4:U4))</f>
         <v>x00</v>
       </c>
-      <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -1561,679 +1788,679 @@
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-    </row>
-    <row r="7" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="U4" s="16"/>
+      <c r="V4" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C6" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+    </row>
+    <row r="7" spans="3:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>8</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>9</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>10</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>11</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>12</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>13</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>15</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>16</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>17</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>18</v>
       </c>
-      <c r="U7" t="s">
-        <v>120</v>
-      </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="str">
-        <f>_xlfn.CONCAT(C8:T8)</f>
+    <row r="8" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="13" t="str">
+        <f>_xlfn.CONCAT(D8:U8)</f>
         <v>x0fx00x00</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="str">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B2)</f>
         <v>x00</v>
       </c>
-      <c r="E8" s="2" t="str">
-        <f>"x0"&amp;DEC2HEX(COLUMNS(F8:T8)-COUNTBLANK(F8:T8))</f>
+      <c r="F8" s="2" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G8:U8)-COUNTBLANK(G8:U8))</f>
         <v>x00</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="str">
-        <f>_xlfn.CONCAT(C9:T9)</f>
+    <row r="9" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="13" t="str">
+        <f>_xlfn.CONCAT(D9:U9)</f>
         <v>x0fx01x00</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="str">
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B3)</f>
         <v>x01</v>
       </c>
-      <c r="E9" s="2" t="str">
-        <f t="shared" ref="E9:E40" si="0">"x0"&amp;DEC2HEX(COLUMNS(F9:T9)-COUNTBLANK(F9:T9))</f>
+      <c r="F9" s="2" t="str">
+        <f t="shared" ref="F9:F40" si="0">"x0"&amp;DEC2HEX(COLUMNS(G9:U9)-COUNTBLANK(G9:U9))</f>
         <v>x00</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="str">
-        <f t="shared" ref="B10:B40" si="1">_xlfn.CONCAT(C10:T10)</f>
+    <row r="10" spans="3:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="13" t="str">
+        <f t="shared" ref="C10:C40" si="1">_xlfn.CONCAT(D10:U10)</f>
         <v>x0fx02x00</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9" t="str">
+      <c r="D10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B4)</f>
         <v>x02</v>
       </c>
-      <c r="E10" s="2" t="str">
+      <c r="F10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U10" s="9">
+      <c r="V10" s="9">
         <v>2</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="W10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="X10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="X10" s="10" t="s">
+      <c r="Y10" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="str">
+    <row r="11" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx03x00</v>
       </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="str">
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B5)</f>
         <v>x03</v>
       </c>
-      <c r="E11" s="2" t="str">
+      <c r="F11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>3</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="Y11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="str">
+    <row r="12" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx04x00</v>
       </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="str">
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B6)</f>
         <v>x04</v>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="F12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>4</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W12" s="4" t="s">
+      <c r="X12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="Y12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="str">
+    <row r="13" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx06x00</v>
       </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="str">
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B7)</f>
         <v>x06</v>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="F13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>6</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="W13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="X13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="Y13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="str">
+    <row r="14" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx08x00</v>
       </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="str">
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B8)</f>
         <v>x08</v>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="F14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>8</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="W14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="X14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="Y14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="str">
+    <row r="15" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx09x00</v>
       </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="str">
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
         <f>"x0"&amp;DEC2HEX('USB2CAN COMMANDS'!B9)</f>
         <v>x09</v>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="F15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>9</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="X15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="str">
+    <row r="16" spans="3:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx10x00</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9" t="str">
+      <c r="D16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B10)</f>
         <v>x10</v>
       </c>
-      <c r="E16" s="2" t="str">
+      <c r="F16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U16" s="9">
+      <c r="V16" s="9">
         <v>16</v>
       </c>
-      <c r="V16" s="10" t="s">
+      <c r="W16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W16" s="10" t="s">
+      <c r="X16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="X16" s="10" t="s">
+      <c r="Y16" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="str">
+    <row r="17" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx11x00</v>
       </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="str">
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B11)</f>
         <v>x11</v>
       </c>
-      <c r="E17" s="2" t="str">
+      <c r="F17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>17</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="W17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="W17" s="5" t="s">
+      <c r="X17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="Y17" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="str">
+    <row r="18" spans="3:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx12x00</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9" t="str">
+      <c r="D18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B12)</f>
         <v>x12</v>
       </c>
-      <c r="E18" s="2" t="str">
+      <c r="F18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U18" s="9">
+      <c r="V18" s="9">
         <v>18</v>
       </c>
-      <c r="V18" s="10" t="s">
+      <c r="W18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="W18" s="10" t="s">
+      <c r="X18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="X18" s="10" t="s">
+      <c r="Y18" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="str">
+    <row r="19" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx13x00</v>
       </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" t="str">
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B13)</f>
         <v>x13</v>
       </c>
-      <c r="E19" s="2" t="str">
+      <c r="F19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>19</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="W19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="W19" s="5" t="s">
+      <c r="X19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="Y19" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="str">
+    <row r="20" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx14x00</v>
       </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="str">
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B14)</f>
         <v>x14</v>
       </c>
-      <c r="E20" s="2" t="str">
+      <c r="F20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>20</v>
       </c>
-      <c r="V20" s="4" t="s">
+      <c r="W20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="W20" s="5" t="s">
+      <c r="X20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="Y20" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="str">
+    <row r="21" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx15x00</v>
       </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="str">
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B15)</f>
         <v>x15</v>
       </c>
-      <c r="E21" s="2" t="str">
+      <c r="F21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>21</v>
       </c>
-      <c r="V21" s="4" t="s">
+      <c r="W21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="W21" s="5" t="s">
+      <c r="X21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="Y21" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="str">
+    <row r="22" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx16x00</v>
       </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" t="str">
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B16)</f>
         <v>x16</v>
       </c>
-      <c r="E22" s="2" t="str">
+      <c r="F22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>22</v>
       </c>
-      <c r="V22" s="4" t="s">
+      <c r="W22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W22" s="4" t="s">
+      <c r="X22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="Y22" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="str">
+    <row r="23" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx20x00</v>
       </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" t="str">
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B17)</f>
         <v>x20</v>
       </c>
-      <c r="E23" s="2" t="str">
+      <c r="F23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>32</v>
       </c>
-      <c r="V23" s="4" t="s">
+      <c r="W23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="X23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="Y23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="str">
+    <row r="24" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx21x00</v>
       </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="str">
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B18)</f>
         <v>x21</v>
       </c>
-      <c r="E24" s="2" t="str">
+      <c r="F24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>33</v>
       </c>
-      <c r="V24" s="4" t="s">
+      <c r="W24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W24" s="4" t="s">
+      <c r="X24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="X24" s="4" t="s">
+      <c r="Y24" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="str">
+    <row r="25" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx3Ex00</v>
       </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" t="str">
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B19)</f>
         <v>x3E</v>
       </c>
-      <c r="E25" s="2" t="str">
+      <c r="F25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>62</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="W25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W25" s="4" t="s">
+      <c r="X25" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="X25" s="4" t="s">
+      <c r="Y25" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="str">
+    <row r="26" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx3Fx00</v>
       </c>
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" t="str">
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B20)</f>
         <v>x3F</v>
       </c>
-      <c r="E26" s="2" t="str">
+      <c r="F26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>63</v>
       </c>
-      <c r="V26" s="4" t="s">
+      <c r="W26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W26" s="5" t="s">
+      <c r="X26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="Y26" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="str">
+    <row r="27" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx40x00</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9" t="str">
+      <c r="D27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B21)</f>
         <v>x40</v>
       </c>
-      <c r="E27" s="2" t="str">
+      <c r="F27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -2248,36 +2475,36 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
-      <c r="U27" s="9">
+      <c r="U27" s="9"/>
+      <c r="V27" s="9">
         <v>64</v>
       </c>
-      <c r="V27" s="10" t="s">
+      <c r="W27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="W27" s="10" t="s">
+      <c r="X27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="X27" s="4" t="s">
+      <c r="Y27" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="str">
+    <row r="28" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx41x00</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9" t="str">
+      <c r="D28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B22)</f>
         <v>x41</v>
       </c>
-      <c r="E28" s="2" t="str">
+      <c r="F28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -2292,460 +2519,451 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
-      <c r="U28" s="9">
+      <c r="U28" s="9"/>
+      <c r="V28" s="9">
         <v>65</v>
       </c>
-      <c r="V28" s="10" t="s">
+      <c r="W28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="W28" s="11" t="s">
+      <c r="X28" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="Y28" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="str">
+    <row r="29" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx42x00</v>
       </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" t="str">
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B23)</f>
         <v>x42</v>
       </c>
-      <c r="E29" s="2" t="str">
+      <c r="F29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>66</v>
       </c>
-      <c r="V29" s="4" t="s">
+      <c r="W29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="W29" s="4" t="s">
+      <c r="X29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="X29" s="4" t="s">
+      <c r="Y29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="str">
+    <row r="30" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx43x00</v>
       </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" t="str">
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B24)</f>
         <v>x43</v>
       </c>
-      <c r="E30" s="2" t="str">
+      <c r="F30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>67</v>
       </c>
-      <c r="V30" s="4" t="s">
+      <c r="W30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W30" s="5" t="s">
+      <c r="X30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="X30" s="4" t="s">
+      <c r="Y30" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="str">
+    <row r="31" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx44x00</v>
       </c>
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" t="str">
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B25)</f>
         <v>x44</v>
       </c>
-      <c r="E31" s="2" t="str">
+      <c r="F31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>68</v>
       </c>
-      <c r="V31" s="4" t="s">
+      <c r="W31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="W31" s="4" t="s">
+      <c r="X31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="X31" s="4" t="s">
+      <c r="Y31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="str">
+    <row r="32" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx45x00</v>
       </c>
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" t="str">
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B26)</f>
         <v>x45</v>
       </c>
-      <c r="E32" s="2" t="str">
+      <c r="F32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>69</v>
       </c>
-      <c r="V32" s="4" t="s">
+      <c r="W32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="W32" s="4" t="s">
+      <c r="X32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="X32" s="4" t="s">
+      <c r="Y32" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="str">
+    <row r="33" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx46x00</v>
       </c>
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" t="str">
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B27)</f>
         <v>x46</v>
       </c>
-      <c r="E33" s="2" t="str">
+      <c r="F33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>70</v>
       </c>
-      <c r="V33" s="4" t="s">
+      <c r="W33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="W33" s="5" t="s">
+      <c r="X33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="X33" s="4" t="s">
+      <c r="Y33" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="str">
+    <row r="34" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx47x00</v>
       </c>
-      <c r="C34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" t="str">
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B28)</f>
         <v>x47</v>
       </c>
-      <c r="E34" s="2" t="str">
+      <c r="F34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>71</v>
       </c>
-      <c r="V34" s="4" t="s">
+      <c r="W34" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="W34" s="4" t="s">
+      <c r="X34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="X34" s="4" t="s">
+      <c r="Y34" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="str">
+    <row r="35" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx48x00</v>
       </c>
-      <c r="C35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" t="str">
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B29)</f>
         <v>x48</v>
       </c>
-      <c r="E35" s="2" t="str">
+      <c r="F35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>72</v>
       </c>
-      <c r="V35" s="4" t="s">
+      <c r="W35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="W35" s="4" t="s">
+      <c r="X35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="X35" s="4" t="s">
+      <c r="Y35" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="str">
+    <row r="36" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx4Ax00</v>
       </c>
-      <c r="C36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" t="str">
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B30)</f>
         <v>x4A</v>
       </c>
-      <c r="E36" s="2" t="str">
+      <c r="F36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>74</v>
       </c>
-      <c r="V36" s="4" t="s">
+      <c r="W36" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="W36" s="5" t="s">
+      <c r="X36" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="X36" s="4" t="s">
+      <c r="Y36" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="str">
+    <row r="37" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx60x00</v>
       </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" t="str">
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B31)</f>
         <v>x60</v>
       </c>
-      <c r="E37" s="2" t="str">
+      <c r="F37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>96</v>
       </c>
-      <c r="V37" s="4" t="s">
+      <c r="W37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W37" s="4" t="s">
+      <c r="X37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="X37" s="4" t="s">
+      <c r="Y37" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="str">
+    <row r="38" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx61x00</v>
       </c>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" t="str">
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B32)</f>
         <v>x61</v>
       </c>
-      <c r="E38" s="2" t="str">
+      <c r="F38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>97</v>
       </c>
-      <c r="V38" s="4" t="s">
+      <c r="W38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="W38" s="4" t="s">
+      <c r="X38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="X38" s="4" t="s">
+      <c r="Y38" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="str">
+    <row r="39" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx62x00</v>
       </c>
-      <c r="C39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" t="str">
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B33)</f>
         <v>x62</v>
       </c>
-      <c r="E39" s="2" t="str">
+      <c r="F39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>98</v>
       </c>
-      <c r="V39" s="4" t="s">
+      <c r="W39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="W39" s="5" t="s">
+      <c r="X39" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="X39" s="4" t="s">
+      <c r="Y39" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="str">
+    <row r="40" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="13" t="str">
         <f t="shared" si="1"/>
         <v>x0fx7Fx00</v>
       </c>
-      <c r="C40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" t="str">
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
         <f>"x"&amp;DEC2HEX('USB2CAN COMMANDS'!B34)</f>
         <v>x7F</v>
       </c>
-      <c r="E40" s="2" t="str">
+      <c r="F40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>x00</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>127</v>
       </c>
-      <c r="V40" s="4" t="s">
+      <c r="W40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="W40" s="4" t="s">
+      <c r="X40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="X40" s="4" t="s">
+      <c r="Y40" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="2"/>
-      <c r="V41" s="14"/>
+    <row r="41" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="2"/>
       <c r="W41" s="14"/>
       <c r="X41" s="14"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B42" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="Y41" s="14"/>
+    </row>
+    <row r="42" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C43" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>1</v>
       </c>
-      <c r="B43" s="15" t="str">
-        <f t="shared" ref="B43:B44" si="2">_xlfn.CONCAT(C43:T43)</f>
+      <c r="B44" s="61" t="str">
+        <f>"'\"&amp;D44&amp;"','\"&amp;E44&amp;"','\"&amp;F44&amp;"',"</f>
+        <v>'\x0f','\x02','\x00',</v>
+      </c>
+      <c r="C44" s="15" t="str">
+        <f t="shared" ref="C44:C45" si="2">_xlfn.CONCAT(D44:U44)</f>
         <v>x0fx02x00</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="17" t="str">
-        <f t="shared" ref="E43:E49" si="3">"x0"&amp;DEC2HEX(COLUMNS(F43:T43)-COUNTBLANK(F43:T43))</f>
+      <c r="D44" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="17" t="str">
+        <f t="shared" ref="F44:F49" si="3">"x0"&amp;DEC2HEX(COLUMNS(G44:U44)-COUNTBLANK(G44:U44))</f>
         <v>x00</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>x0fx12x02x00x01</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>x02</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>160</v>
-      </c>
+      <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
@@ -2760,35 +2978,39 @@
       <c r="S44" s="18"/>
       <c r="T44" s="18"/>
       <c r="U44" s="18"/>
-      <c r="V44" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V44" s="18"/>
+      <c r="W44" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>3</v>
-      </c>
-      <c r="B45" s="15" t="str">
-        <f t="shared" ref="B45:B51" si="4">_xlfn.CONCAT(C45:T45)</f>
-        <v>x0fx12x02x1FxC0</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B45" s="61" t="str">
+        <f>"'\"&amp;D45&amp;"','\"&amp;E45&amp;"','\"&amp;F45&amp;"','\"&amp;G45&amp;"','\"&amp;H45</f>
+        <v>'\x0f','\x12','\x02','\x00','\x01</v>
+      </c>
+      <c r="C45" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>x0fx12x02x00x01</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" s="17" t="str">
+        <v>0</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="17" t="str">
         <f t="shared" si="3"/>
         <v>x02</v>
       </c>
-      <c r="F45" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="H45" s="18"/>
+      <c r="G45" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" s="63" t="s">
+        <v>140</v>
+      </c>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
@@ -2802,443 +3024,1300 @@
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
       <c r="U45" s="18"/>
-      <c r="V45" s="19" t="s">
+      <c r="V45" s="18"/>
+      <c r="W45" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="61" t="str">
+        <f>"'\"&amp;D46&amp;"','\"&amp;E46&amp;"','\"&amp;F46&amp;"','\"&amp;G46&amp;"','\"&amp;H46&amp;"'"</f>
+        <v>'\x0f','\x12','\x02','\x1F','\xC0'</v>
+      </c>
+      <c r="C46" s="15" t="str">
+        <f t="shared" ref="C46:C49" si="4">_xlfn.CONCAT(D46:U46)</f>
+        <v>x0fx12x02x1FxC0</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>x02</v>
+      </c>
+      <c r="G46" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="60">
+        <v>4</v>
+      </c>
+      <c r="B47" s="61" t="str">
+        <f t="shared" ref="B47:B51" si="5">"'\"&amp;D47&amp;"','\"&amp;E47&amp;"','\"&amp;F47&amp;"','\"&amp;G47&amp;"','\"&amp;H47&amp;"'"</f>
+        <v>'\x0f','\x12','\x02','\x10','\x00'</v>
+      </c>
+      <c r="C47" s="25" t="str">
+        <f t="shared" ref="C47:C48" si="6">_xlfn.CONCAT(D47:U47)</f>
+        <v>x0fx12x02x10x00</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="27" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G47:U47)-COUNTBLANK(G47:U47))</f>
+        <v>x02</v>
+      </c>
+      <c r="G47" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="H47" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="X47" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="60">
+        <v>5</v>
+      </c>
+      <c r="B48" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>'\x0f','\x12','\x02','\x14','\xff'</v>
+      </c>
+      <c r="C48" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>x0fx12x02x14xff</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="27" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G48:U48)-COUNTBLANK(G48:U48))</f>
+        <v>x02</v>
+      </c>
+      <c r="G48" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="X48" s="26" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30">
-        <v>4</v>
-      </c>
-      <c r="B46" s="26" t="str">
-        <f t="shared" ref="B46:B47" si="5">_xlfn.CONCAT(C46:T46)</f>
-        <v>x0fx12x02x10x00</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="28" t="str">
-        <f>"x0"&amp;DEC2HEX(COLUMNS(F46:T46)-COUNTBLANK(F46:T46))</f>
-        <v>x02</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="W46" s="27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30">
-        <v>4</v>
-      </c>
-      <c r="B47" s="26" t="str">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>x0fx12x02x14xff</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="28" t="str">
-        <f>"x0"&amp;DEC2HEX(COLUMNS(F47:T47)-COUNTBLANK(F47:T47))</f>
-        <v>x02</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="W47" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48" s="15" t="str">
+        <v>'\x0f','\x12','\x02','\x08','\xDA'</v>
+      </c>
+      <c r="C49" s="15" t="str">
         <f t="shared" si="4"/>
         <v>x0fx12x02x08xDA</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="17" t="str">
+      <c r="D49" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="17" t="str">
         <f t="shared" si="3"/>
         <v>x02</v>
       </c>
-      <c r="F48" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="G49" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="H49" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="35">
+        <v>7</v>
+      </c>
+      <c r="B50" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>'\x0f','\x12','\x02','\x04','\x03'</v>
+      </c>
+      <c r="C50" s="36" t="str">
+        <f>_xlfn.CONCAT(D50:U50)</f>
+        <v>x0fx12x02x04x03</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="38" t="str">
+        <f t="shared" ref="F50" si="7">"x0"&amp;DEC2HEX(COLUMNS(G50:U50)-COUNTBLANK(G50:U50))</f>
+        <v>x02</v>
+      </c>
+      <c r="G50" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="H50" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>'\x0f','\x12','\x03','\x08','\x06'</v>
+      </c>
+      <c r="C51" s="30" t="str">
+        <f>_xlfn.CONCAT(D51:U51)</f>
+        <v>x0fx12x03x08x06x00</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="32" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G51:U51)-COUNTBLANK(G51:U51))</f>
+        <v>x03</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="I51" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="W51" t="s">
+        <v>226</v>
+      </c>
+      <c r="X51" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" s="59" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="55">
+        <v>44569</v>
+      </c>
+      <c r="B52" s="70"/>
+      <c r="C52" s="56" t="str">
+        <f>_xlfn.CONCAT(D52:U52)</f>
+        <v>x0fx12x02x06x00</v>
+      </c>
+      <c r="D52" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" s="57" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G52:U52)-COUNTBLANK(G52:U52))</f>
+        <v>x02</v>
+      </c>
+      <c r="G52" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="H52" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="58"/>
+      <c r="R52" s="58"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="58"/>
+      <c r="U52" s="58"/>
+      <c r="V52" s="58"/>
+      <c r="W52" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="X52" s="59" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" s="59" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="55">
+        <v>44600</v>
+      </c>
+      <c r="B53" s="70"/>
+      <c r="C53" s="56" t="str">
+        <f t="shared" ref="C53" si="8">_xlfn.CONCAT(D53:U53)</f>
+        <v>x0fx13x02x07x14</v>
+      </c>
+      <c r="D53" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="57" t="str">
+        <f t="shared" ref="F53" si="9">"x0"&amp;DEC2HEX(COLUMNS(G53:U53)-COUNTBLANK(G53:U53))</f>
+        <v>x02</v>
+      </c>
+      <c r="G53" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H53" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="58"/>
+      <c r="S53" s="58"/>
+      <c r="T53" s="58"/>
+      <c r="U53" s="58"/>
+      <c r="V53" s="58"/>
+      <c r="W53" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="X53" s="59" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54" s="61" t="str">
+        <f t="shared" ref="B54" si="10">"'\"&amp;D54&amp;"','\"&amp;E54&amp;"','\"&amp;F54&amp;"','\"&amp;G54&amp;"','\"&amp;H54&amp;"','\"&amp;I54</f>
+        <v>'\x0f','\x12','\x03','\x21','\x01','\x01</v>
+      </c>
+      <c r="C54" s="21" t="str">
+        <f>_xlfn.CONCAT(D54:V54)</f>
+        <v>x0fx12x03x21x01x01</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" s="23" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G54:V54)-COUNTBLANK(G54:V54))</f>
+        <v>x03</v>
+      </c>
+      <c r="G54" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="H54" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="I54" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55" s="61" t="str">
+        <f>"'\"&amp;D55&amp;"','\"&amp;E55&amp;"','\"&amp;F55&amp;"','\"&amp;G55&amp;"','\"&amp;H55&amp;"','\"&amp;I55</f>
+        <v>'\x0f','\x12','\x03','\x20','\x00','\x12</v>
+      </c>
+      <c r="C55" s="21" t="str">
+        <f>_xlfn.CONCAT(D55:V55)</f>
+        <v>x0fx12x03x20x00x12</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" s="23" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G55:V55)-COUNTBLANK(G55:V55))</f>
+        <v>x03</v>
+      </c>
+      <c r="G55" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="I55" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="24"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56" s="61" t="str">
+        <f>"'\"&amp;D56&amp;"','\"&amp;E56&amp;"','\"&amp;F56&amp;"',"</f>
+        <v>'\x0f','\x03','\x00',</v>
+      </c>
+      <c r="C56" s="15" t="str">
+        <f t="shared" ref="C56:C57" si="11">_xlfn.CONCAT(D56:U56)</f>
+        <v>x0fx03x00</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" s="17" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G56:U56)-COUNTBLANK(G56:U56))</f>
+        <v>x00</v>
+      </c>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57" s="61" t="str">
+        <f t="shared" ref="B57" si="12">"'\"&amp;D57&amp;"','\"&amp;E57&amp;"','\"&amp;F57&amp;"','\"&amp;G57&amp;"','\"&amp;H57&amp;"'"</f>
+        <v>'\x0f','\x12','\x02','\x00','\x00'</v>
+      </c>
+      <c r="C57" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v>x0fx12x02x00x00</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" s="17" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G57:U57)-COUNTBLANK(G57:U57))</f>
+        <v>x02</v>
+      </c>
+      <c r="G57" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="I57" s="68"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="44"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C60" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
+      <c r="W60" s="43"/>
+    </row>
+    <row r="61" spans="1:24" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="61">
+        <v>1</v>
+      </c>
+      <c r="B61" s="61" t="str">
+        <f>"'\"&amp;D61&amp;"','\"&amp;E61&amp;"','\"&amp;F61&amp;"',"</f>
+        <v>'\x0f','\x02','\x00',</v>
+      </c>
+      <c r="C61" s="62" t="str">
+        <f t="shared" ref="C61:C66" si="13">_xlfn.CONCAT(D61:U61)</f>
+        <v>x0fx02x00</v>
+      </c>
+      <c r="D61" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="64" t="str">
+        <f t="shared" ref="F61:F63" si="14">"x0"&amp;DEC2HEX(COLUMNS(G61:U61)-COUNTBLANK(G61:U61))</f>
+        <v>x00</v>
+      </c>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="63"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="63"/>
+      <c r="T61" s="63"/>
+      <c r="U61" s="63"/>
+      <c r="V61" s="63"/>
+      <c r="W61" s="65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="61">
+        <v>2</v>
+      </c>
+      <c r="B62" s="61" t="str">
+        <f>"'\"&amp;D62&amp;"','\"&amp;E62&amp;"','\"&amp;F62&amp;"','\"&amp;G62&amp;"','\"&amp;H62</f>
+        <v>'\x0f','\x10','\x02','\x00','\x01</v>
+      </c>
+      <c r="C62" s="62" t="str">
+        <f t="shared" si="13"/>
+        <v>x0fx10x02x00x01</v>
+      </c>
+      <c r="D62" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F62" s="64" t="str">
+        <f t="shared" si="14"/>
+        <v>x02</v>
+      </c>
+      <c r="G62" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="H62" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
+      <c r="O62" s="63"/>
+      <c r="P62" s="63"/>
+      <c r="Q62" s="63"/>
+      <c r="R62" s="63"/>
+      <c r="S62" s="63"/>
+      <c r="T62" s="63"/>
+      <c r="U62" s="63"/>
+      <c r="V62" s="63"/>
+      <c r="W62" s="65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="61">
+        <v>3</v>
+      </c>
+      <c r="B63" s="61" t="str">
+        <f>"'\"&amp;D63&amp;"','\"&amp;E63&amp;"','\"&amp;F63&amp;"','\"&amp;G63&amp;"','\"&amp;H63&amp;"'"</f>
+        <v>'\x0f','\x10','\x02','\x1F','\xC0'</v>
+      </c>
+      <c r="C63" s="62" t="str">
+        <f t="shared" si="13"/>
+        <v>x0fx10x02x1FxC0</v>
+      </c>
+      <c r="D63" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63" s="64" t="str">
+        <f t="shared" si="14"/>
+        <v>x02</v>
+      </c>
+      <c r="G63" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="H63" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
+      <c r="T63" s="63"/>
+      <c r="U63" s="63"/>
+      <c r="V63" s="63"/>
+      <c r="W63" s="65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="66">
+        <v>4</v>
+      </c>
+      <c r="B64" s="61" t="str">
+        <f t="shared" ref="B64:B68" si="15">"'\"&amp;D64&amp;"','\"&amp;E64&amp;"','\"&amp;F64&amp;"','\"&amp;G64&amp;"','\"&amp;H64&amp;"'"</f>
+        <v>'\x0f','\x10','\x02','\x10','\x00'</v>
+      </c>
+      <c r="C64" s="62" t="str">
+        <f t="shared" si="13"/>
+        <v>x0fx10x02x10x00</v>
+      </c>
+      <c r="D64" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" s="64" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G64:U64)-COUNTBLANK(G64:U64))</f>
+        <v>x02</v>
+      </c>
+      <c r="G64" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="H64" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="63"/>
+      <c r="R64" s="63"/>
+      <c r="S64" s="63"/>
+      <c r="T64" s="63"/>
+      <c r="U64" s="63"/>
+      <c r="V64" s="63"/>
+      <c r="W64" s="67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="66">
+        <v>5</v>
+      </c>
+      <c r="B65" s="61" t="str">
+        <f t="shared" si="15"/>
+        <v>'\x0f','\x10','\x02','\x14','\xff'</v>
+      </c>
+      <c r="C65" s="62" t="str">
+        <f t="shared" si="13"/>
+        <v>x0fx10x02x14xff</v>
+      </c>
+      <c r="D65" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F65" s="64" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G65:U65)-COUNTBLANK(G65:U65))</f>
+        <v>x02</v>
+      </c>
+      <c r="G65" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="H65" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="63"/>
+      <c r="T65" s="63"/>
+      <c r="U65" s="63"/>
+      <c r="V65" s="63"/>
+      <c r="W65" s="67" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="61">
         <v>6</v>
       </c>
-      <c r="B49" s="31" t="str">
-        <f t="shared" si="4"/>
-        <v>x0fx12x02x06x00</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="33" t="str">
-        <f t="shared" si="3"/>
+      <c r="B66" s="61" t="str">
+        <f t="shared" si="15"/>
+        <v>'\x0f','\x10','\x02','\x08','\xDA'</v>
+      </c>
+      <c r="C66" s="62" t="str">
+        <f t="shared" si="13"/>
+        <v>x0fx10x02x08xDA</v>
+      </c>
+      <c r="D66" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" s="64" t="str">
+        <f t="shared" ref="F66:F67" si="16">"x0"&amp;DEC2HEX(COLUMNS(G66:U66)-COUNTBLANK(G66:U66))</f>
         <v>x02</v>
       </c>
-      <c r="F49" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="G49" s="34" t="s">
+      <c r="G66" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="H66" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="68"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="68"/>
+      <c r="O66" s="68"/>
+      <c r="P66" s="68"/>
+      <c r="Q66" s="68"/>
+      <c r="R66" s="68"/>
+      <c r="S66" s="68"/>
+      <c r="T66" s="68"/>
+      <c r="U66" s="68"/>
+      <c r="V66" s="68"/>
+      <c r="W66" s="63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="61">
+        <v>7</v>
+      </c>
+      <c r="B67" s="61" t="str">
+        <f t="shared" si="15"/>
+        <v>'\x0f','\x10','\x02','\x04','\x03'</v>
+      </c>
+      <c r="C67" s="62" t="str">
+        <f>_xlfn.CONCAT(D67:U67)</f>
+        <v>x0fx10x02x04x03</v>
+      </c>
+      <c r="D67" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="W49" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>6</v>
-      </c>
-      <c r="B50" s="31" t="str">
-        <f t="shared" ref="B50" si="6">_xlfn.CONCAT(C50:T50)</f>
-        <v>x0fx13x02x07x14</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="E50" s="33" t="str">
-        <f t="shared" ref="E50" si="7">"x0"&amp;DEC2HEX(COLUMNS(F50:T50)-COUNTBLANK(F50:T50))</f>
+      <c r="F67" s="64" t="str">
+        <f t="shared" si="16"/>
         <v>x02</v>
       </c>
-      <c r="F50" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="G50" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="W50" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
-        <v>7</v>
-      </c>
-      <c r="B51" s="37" t="str">
-        <f t="shared" si="4"/>
-        <v>x0fx04x02x04x03</v>
-      </c>
-      <c r="C51" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="E51" s="39" t="str">
-        <f t="shared" ref="E51" si="8">"x0"&amp;DEC2HEX(COLUMNS(F51:T51)-COUNTBLANK(F51:T51))</f>
+      <c r="G67" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="H67" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="I67" s="68"/>
+      <c r="J67" s="68"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="68"/>
+      <c r="N67" s="68"/>
+      <c r="O67" s="68"/>
+      <c r="P67" s="68"/>
+      <c r="Q67" s="68"/>
+      <c r="R67" s="68"/>
+      <c r="S67" s="68"/>
+      <c r="T67" s="68"/>
+      <c r="U67" s="68"/>
+      <c r="V67" s="68"/>
+      <c r="W67" s="63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="61">
+        <v>8</v>
+      </c>
+      <c r="B68" s="61" t="str">
+        <f t="shared" si="15"/>
+        <v>'\x0f','\x10','\x03','\x08','\x06'</v>
+      </c>
+      <c r="C68" s="62" t="str">
+        <f>_xlfn.CONCAT(D68:U68)</f>
+        <v>x0fx10x03x08x06x00</v>
+      </c>
+      <c r="D68" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" s="64" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G68:U68)-COUNTBLANK(G68:U68))</f>
+        <v>x03</v>
+      </c>
+      <c r="G68" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="H68" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="I68" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="W68" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="X68" s="61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="70">
+        <v>44569</v>
+      </c>
+      <c r="B69" s="70"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" s="72" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G69:U69)-COUNTBLANK(G69:U69))</f>
+        <v>x01</v>
+      </c>
+      <c r="G69" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="73"/>
+      <c r="M69" s="73"/>
+      <c r="N69" s="73"/>
+      <c r="O69" s="73"/>
+      <c r="P69" s="73"/>
+      <c r="Q69" s="73"/>
+      <c r="R69" s="73"/>
+      <c r="S69" s="73"/>
+      <c r="T69" s="73"/>
+      <c r="U69" s="73"/>
+      <c r="V69" s="73"/>
+      <c r="W69" s="71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="70">
+        <v>44600</v>
+      </c>
+      <c r="B70" s="70"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" s="72" t="str">
+        <f t="shared" ref="F70" si="17">"x0"&amp;DEC2HEX(COLUMNS(G70:U70)-COUNTBLANK(G70:U70))</f>
+        <v>x01</v>
+      </c>
+      <c r="G70" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="73"/>
+      <c r="M70" s="73"/>
+      <c r="N70" s="73"/>
+      <c r="O70" s="73"/>
+      <c r="P70" s="73"/>
+      <c r="Q70" s="73"/>
+      <c r="R70" s="73"/>
+      <c r="S70" s="73"/>
+      <c r="T70" s="73"/>
+      <c r="U70" s="73"/>
+      <c r="V70" s="73"/>
+      <c r="W70" s="71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="61">
+        <v>10</v>
+      </c>
+      <c r="B71" s="61" t="str">
+        <f t="shared" ref="B71" si="18">"'\"&amp;D71&amp;"','\"&amp;E71&amp;"','\"&amp;F71&amp;"','\"&amp;G71&amp;"','\"&amp;H71&amp;"','\"&amp;I71</f>
+        <v>'\x0f','\x10','\x03','\x21','\x01','\x01</v>
+      </c>
+      <c r="C71" s="62" t="str">
+        <f>_xlfn.CONCAT(D71:V71)</f>
+        <v>x0fx10x03x21x01x01</v>
+      </c>
+      <c r="D71" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F71" s="64" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G71:V71)-COUNTBLANK(G71:V71))</f>
+        <v>x03</v>
+      </c>
+      <c r="G71" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="H71" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="I71" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="J71" s="68"/>
+      <c r="K71" s="68"/>
+      <c r="L71" s="68"/>
+      <c r="M71" s="68"/>
+      <c r="N71" s="68"/>
+      <c r="O71" s="68"/>
+      <c r="P71" s="68"/>
+      <c r="Q71" s="68"/>
+      <c r="R71" s="68"/>
+      <c r="S71" s="68"/>
+      <c r="T71" s="68"/>
+      <c r="U71" s="68"/>
+      <c r="V71" s="68"/>
+      <c r="W71" s="63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="61">
+        <v>9</v>
+      </c>
+      <c r="B72" s="61" t="str">
+        <f>"'\"&amp;D72&amp;"','\"&amp;E72&amp;"','\"&amp;F72&amp;"','\"&amp;G72&amp;"','\"&amp;H72&amp;"','\"&amp;I72</f>
+        <v>'\x0f','\x10','\x03','\x20','\x00','\x12</v>
+      </c>
+      <c r="C72" s="62" t="str">
+        <f>_xlfn.CONCAT(D72:V72)</f>
+        <v>x0fx10x03x20x00x12</v>
+      </c>
+      <c r="D72" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F72" s="64" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G72:V72)-COUNTBLANK(G72:V72))</f>
+        <v>x03</v>
+      </c>
+      <c r="G72" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="H72" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="I72" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="J72" s="68"/>
+      <c r="K72" s="68"/>
+      <c r="L72" s="68"/>
+      <c r="M72" s="68"/>
+      <c r="N72" s="68"/>
+      <c r="O72" s="68"/>
+      <c r="P72" s="68"/>
+      <c r="Q72" s="68"/>
+      <c r="R72" s="68"/>
+      <c r="S72" s="68"/>
+      <c r="T72" s="68"/>
+      <c r="U72" s="68"/>
+      <c r="V72" s="68"/>
+      <c r="W72" s="63" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="61">
+        <v>11</v>
+      </c>
+      <c r="B73" s="61" t="str">
+        <f>"'\"&amp;D73&amp;"','\"&amp;E73&amp;"','\"&amp;F73&amp;"',"</f>
+        <v>'\x0f','\x03','\x00',</v>
+      </c>
+      <c r="C73" s="62" t="str">
+        <f t="shared" ref="C73:C74" si="19">_xlfn.CONCAT(D73:U73)</f>
+        <v>x0fx03x00</v>
+      </c>
+      <c r="D73" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" s="64" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G73:U73)-COUNTBLANK(G73:U73))</f>
+        <v>x00</v>
+      </c>
+      <c r="G73" s="68"/>
+      <c r="H73" s="68"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="68"/>
+      <c r="K73" s="68"/>
+      <c r="L73" s="68"/>
+      <c r="M73" s="68"/>
+      <c r="N73" s="68"/>
+      <c r="O73" s="68"/>
+      <c r="P73" s="68"/>
+      <c r="Q73" s="68"/>
+      <c r="R73" s="68"/>
+      <c r="S73" s="68"/>
+      <c r="T73" s="68"/>
+      <c r="U73" s="68"/>
+      <c r="V73" s="68"/>
+      <c r="W73" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="61">
+        <v>12</v>
+      </c>
+      <c r="B74" s="61" t="str">
+        <f t="shared" ref="B74" si="20">"'\"&amp;D74&amp;"','\"&amp;E74&amp;"','\"&amp;F74&amp;"','\"&amp;G74&amp;"','\"&amp;H74&amp;"'"</f>
+        <v>'\x0f','\x10','\x02','\x00','\x00'</v>
+      </c>
+      <c r="C74" s="62" t="str">
+        <f t="shared" si="19"/>
+        <v>x0fx10x02x00x00</v>
+      </c>
+      <c r="D74" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" s="64" t="str">
+        <f>"x0"&amp;DEC2HEX(COLUMNS(G74:U74)-COUNTBLANK(G74:U74))</f>
         <v>x02</v>
       </c>
-      <c r="F51" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="G51" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>8</v>
-      </c>
-      <c r="B52" s="21" t="str">
-        <f>_xlfn.CONCAT(C52:U52)</f>
-        <v>x0fx20x02x00x12</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" s="23" t="str">
-        <f>"x0"&amp;DEC2HEX(COLUMNS(F52:U52)-COUNTBLANK(F52:U52))</f>
-        <v>x02</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
-      <c r="U52" s="24"/>
-      <c r="V52" s="22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>8</v>
-      </c>
-      <c r="B53" s="21" t="str">
-        <f>_xlfn.CONCAT(C53:U53)</f>
-        <v>x0fx21x02x01x01</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" s="23" t="str">
-        <f>"x0"&amp;DEC2HEX(COLUMNS(F53:U53)-COUNTBLANK(F53:U53))</f>
-        <v>x02</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
-      <c r="T53" s="24"/>
-      <c r="U53" s="24"/>
-      <c r="V53" s="22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>9</v>
-      </c>
-      <c r="B54" s="15" t="str">
-        <f t="shared" ref="B54:B55" si="9">_xlfn.CONCAT(C54:T54)</f>
-        <v>x0f0x03x00</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="17" t="str">
-        <f>"x0"&amp;DEC2HEX(COLUMNS(F54:T54)-COUNTBLANK(F54:T54))</f>
-        <v>x00</v>
-      </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>10</v>
-      </c>
-      <c r="B55" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v>x0fx12x02x00x00</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="17" t="str">
-        <f>"x0"&amp;DEC2HEX(COLUMNS(F55:T55)-COUNTBLANK(F55:T55))</f>
-        <v>x02</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="18" t="s">
-        <v>170</v>
-      </c>
+      <c r="G74" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="H74" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="I74" s="68"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
+      <c r="M74" s="68"/>
+      <c r="N74" s="68"/>
+      <c r="O74" s="68"/>
+      <c r="P74" s="68"/>
+      <c r="Q74" s="68"/>
+      <c r="R74" s="68"/>
+      <c r="S74" s="68"/>
+      <c r="T74" s="68"/>
+      <c r="U74" s="68"/>
+      <c r="V74" s="68"/>
+      <c r="W74" s="63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A77" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" s="40"/>
+      <c r="D77" s="65"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A78" s="46"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="65"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A79" s="46"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="65"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A80" s="46"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="67"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="46"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="67"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="46"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="63"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="46"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="63"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="46"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="61"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="46"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="63"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="46"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="63"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="46"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="20"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="46"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B42:V42"/>
-    <mergeCell ref="B6:X6"/>
-    <mergeCell ref="B1:T1"/>
+  <mergeCells count="7">
+    <mergeCell ref="A77:A88"/>
+    <mergeCell ref="A42:W42"/>
+    <mergeCell ref="C43:W43"/>
+    <mergeCell ref="C6:Y6"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="C60:W60"/>
+    <mergeCell ref="A59:W59"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3247,400 +4326,947 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A189CF-2E2C-4375-A033-FB167A3AFC80}">
-  <dimension ref="A1:W16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C6F0C3-7778-4C05-AFFC-C36D042424C0}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="4" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="70.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="E1" s="75"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="77"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="79"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="77"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="80"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A189CF-2E2C-4375-A033-FB167A3AFC80}">
+  <dimension ref="A1:W26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4" style="51" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
+      <c r="B1" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>"x0fx10x01"&amp;F3</f>
+        <v>x0fx10x01x00</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="51">
+        <v>1</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="42">
+        <v>2</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="2" t="str">
+        <f t="shared" ref="C4:C12" si="0">"x0fx10x01"&amp;F4</f>
+        <v>x0fx10x01x1f</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" s="51">
+        <v>2</v>
+      </c>
+      <c r="J4" s="45"/>
+      <c r="K4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="M4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="42">
+        <v>3</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>x0fx10x01x04?</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" s="51">
+        <v>3</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="M5" t="s">
+        <v>210</v>
+      </c>
+      <c r="N5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="42">
+        <v>4</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>x0fx10x01x05</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="51">
+        <v>4</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="M6" t="s">
+        <v>211</v>
+      </c>
+      <c r="N6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="42">
+        <v>5</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>x0fx10x01x08</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="51">
+        <v>5</v>
+      </c>
+      <c r="J7" s="45"/>
+      <c r="K7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="M7" t="s">
+        <v>212</v>
+      </c>
+      <c r="N7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="42">
+        <v>6</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>x0fx10x01x04?</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I8" s="51">
+        <v>6</v>
+      </c>
+      <c r="J8" s="45"/>
+      <c r="K8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="M8" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="42">
+        <v>7</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>x0fx10x01x08</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="F9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="51">
+        <v>7</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L9" s="41"/>
+      <c r="M9" t="s">
+        <v>214</v>
+      </c>
+      <c r="N9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="42">
+        <v>8</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>x0fx10x01x06</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="51">
+        <v>8</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="K10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="M10" t="s">
+        <v>215</v>
+      </c>
+      <c r="N10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="50">
+        <v>44569</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>x0fx10x01x07</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" s="52">
+        <v>44569</v>
+      </c>
+      <c r="J11" s="45"/>
+      <c r="K11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="M11" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="N11" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="O11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="50">
+        <v>44600</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>x0fx10x01x01</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="52">
+        <v>44600</v>
+      </c>
+      <c r="J12" s="45"/>
+      <c r="K12" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="M12" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="N12" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="O12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="42">
+        <v>9</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="41"/>
+      <c r="I13" s="51">
+        <v>9</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="M13" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="42">
+        <v>10</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="41"/>
+      <c r="I14" s="51">
+        <v>10</v>
+      </c>
+      <c r="J14" s="45"/>
+      <c r="K14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="M14" t="s">
+        <v>216</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="42">
+        <v>11</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="41"/>
+      <c r="I15" s="51">
+        <v>11</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="M15" t="s">
+        <v>154</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="42">
+        <v>12</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="41"/>
+      <c r="I16" s="51">
+        <v>12</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="M16" t="s">
+        <v>217</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="C17" s="41"/>
+      <c r="K17" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M17" t="s">
+        <v>218</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="C18" s="41"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="C19" s="41"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="C20" s="41"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="C21" s="41"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" t="s">
         <v>122</v>
       </c>
-      <c r="B3" t="str">
-        <f>"x0fx12x"&amp;C3&amp;"x05"</f>
-        <v>x0fx12x0x00x05</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="44" t="s">
+      <c r="L23" t="s">
         <v>123</v>
       </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J5" si="0">"x0fx12x"&amp;K3&amp;"x05"</f>
-        <v>x0fx12x0x00x05</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" t="str">
-        <f t="shared" ref="B4:B11" si="1">"x0fx12x"&amp;C4&amp;"x05"</f>
-        <v>x0fx12x0x1Fx05</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="44"/>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v>x0fx12x0x1Fx05</v>
-      </c>
-      <c r="K4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>x0fx12x0x04x05</v>
-      </c>
-      <c r="C5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="44"/>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>x0fx12x0x04x05</v>
-      </c>
-      <c r="K5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>x0fx12x0x05x05</v>
-      </c>
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="44"/>
-      <c r="J6" t="str">
-        <f>"x0fx12x"&amp;K6&amp;"x05"</f>
-        <v>x0fx12x0x05x05</v>
-      </c>
-      <c r="K6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>x0fx12x0x08x05</v>
-      </c>
-      <c r="C7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" t="str">
-        <f t="shared" ref="J7:J11" si="2">"x0fx12x"&amp;K7&amp;"x05"</f>
-        <v>x0fx12x0x08x05</v>
-      </c>
-      <c r="K7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" t="str">
-        <f t="shared" si="1"/>
-        <v>x0fx12x0x04?x05</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="44"/>
-      <c r="J8" t="str">
-        <f t="shared" si="2"/>
-        <v>x0fx12x0x04?x05</v>
-      </c>
-      <c r="K8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" t="str">
-        <f t="shared" si="1"/>
-        <v>x0fx12x0x06x05</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="M23" t="s">
+        <v>124</v>
+      </c>
+      <c r="N23" t="s">
+        <v>125</v>
+      </c>
+      <c r="O23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>112</v>
       </c>
-      <c r="D9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="44"/>
-      <c r="J9" t="str">
-        <f t="shared" si="2"/>
-        <v>x0fx12x0x06x05</v>
-      </c>
-      <c r="K9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" t="str">
-        <f t="shared" si="1"/>
-        <v>x0fx12x0x07x05</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B24" t="str">
+        <f>"x0fx40x0"&amp;DEC2HEX(COUNT(C24:Q24))&amp;D24&amp;E24&amp;F24&amp;G24&amp;H24&amp;I24&amp;J24&amp;K24&amp;L24&amp;M24&amp;N24&amp;O24&amp;P24&amp;Q24</f>
+        <v>x0fx40x00</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>113</v>
       </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" s="44"/>
-      <c r="J10" t="str">
-        <f t="shared" si="2"/>
-        <v>x0fx12x0x07x05</v>
-      </c>
-      <c r="K10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" t="str">
-        <f t="shared" si="1"/>
-        <v>x0fx12x0x01x05</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" s="44"/>
-      <c r="J11" t="str">
-        <f t="shared" si="2"/>
-        <v>x0fx12x0x01x05</v>
-      </c>
-      <c r="K11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="B25" t="str">
+        <f>"x0fx40x0"&amp;DEC2HEX(COLUMNS(C25:Q25)-COUNTBLANK(C25:Q25))&amp;C25&amp;D25&amp;E25&amp;F25&amp;G25&amp;H25&amp;I25&amp;J25&amp;K25&amp;L25&amp;M25&amp;N25&amp;O25&amp;P25&amp;Q25</f>
+        <v>x0fx40x04x12x02x03xff</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" t="s">
-        <v>131</v>
-      </c>
-      <c r="I13" t="s">
-        <v>132</v>
-      </c>
-      <c r="J13" t="s">
-        <v>133</v>
-      </c>
-      <c r="K13" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13" t="s">
-        <v>135</v>
-      </c>
-      <c r="M13" t="s">
-        <v>136</v>
-      </c>
-      <c r="N13" t="s">
-        <v>137</v>
-      </c>
-      <c r="O13" t="s">
-        <v>138</v>
-      </c>
-      <c r="P13" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" t="str">
-        <f>"x0fx40x0"&amp;DEC2HEX(COUNT(C14:Q14))&amp;D14&amp;E14&amp;F14&amp;G14&amp;H14&amp;I14&amp;J14&amp;K14&amp;L14&amp;M14&amp;N14&amp;O14&amp;P14&amp;Q14</f>
-        <v>x0fx40x00</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" t="str">
-        <f>"x0fx40x0"&amp;DEC2HEX(COLUMNS(C15:Q15)-COUNTBLANK(C15:Q15))&amp;C15&amp;D15&amp;E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15&amp;M15&amp;N15&amp;O15&amp;P15&amp;Q15</f>
-        <v>x0fx40x04x12x02x03xff</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:W1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="I3:I11"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="J3:J16"/>
+    <mergeCell ref="B3:B16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3648,22 +5274,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6C7DCF-A507-45DE-A0A6-75C309BFB912}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B34"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="2" max="3" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
@@ -3671,471 +5297,606 @@
         <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="str">
+        <f>DEC2HEX(B2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="str">
+        <f t="shared" ref="C3:C34" si="0">DEC2HEX(B3)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="6">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="6">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="6">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="6">
         <v>18</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="6">
         <v>19</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="6">
         <v>20</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="6">
         <v>21</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="6">
         <v>22</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="6">
         <v>32</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="6">
         <v>33</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="6">
         <v>62</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>3E</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="6">
         <v>63</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>3F</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="6">
         <v>64</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="6">
         <v>65</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="6">
         <v>66</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="6">
         <v>67</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="6">
         <v>68</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="6">
         <v>69</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="6">
         <v>70</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="6">
         <v>71</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="6">
         <v>72</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="6">
         <v>74</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>4A</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B31" s="6">
         <v>96</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="6">
         <v>97</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="6">
         <v>98</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="6">
         <v>127</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>7F</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4144,358 +5905,240 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B43ED63-8EC3-4BB9-A8A5-E23EC62450F6}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>108</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>22</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="34"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="81" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="str">
-        <f>"0x"&amp;DEC2HEX(32)</f>
-        <v>0x20</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>154</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" s="45"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G14" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F19" t="s">
-        <v>193</v>
-      </c>
-      <c r="G19" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="D20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" t="s">
-        <v>210</v>
-      </c>
-      <c r="G20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="C21" s="35"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" t="s">
-        <v>193</v>
-      </c>
-      <c r="G24" t="s">
-        <v>194</v>
-      </c>
-      <c r="H24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" t="s">
-        <v>199</v>
-      </c>
-      <c r="E25" t="s">
-        <v>200</v>
-      </c>
-      <c r="F25" t="s">
-        <v>201</v>
-      </c>
-      <c r="G25" t="s">
-        <v>202</v>
-      </c>
-      <c r="H25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C18:H18"/>
+  <mergeCells count="3">
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4503,7 +6146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A5977F-5E27-47AA-A937-D45A32611ECA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4512,43 +6155,46 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
